--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2251705.830259536</v>
+        <v>-2253741.985518439</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2291589.874911148</v>
+        <v>2291589.874911149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>17.54818568076596</v>
       </c>
       <c r="F2" t="n">
         <v>263.2420339516666</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="W2" t="n">
-        <v>216.6533621007965</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>43.33478381609</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>156.9519877386388</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.21959608876246</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>219.3589709503884</v>
       </c>
       <c r="H5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>204.1970224230689</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>77.65226219450486</v>
       </c>
       <c r="W6" t="n">
-        <v>102.9199456073098</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>301.6509053416993</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>185.5237017088178</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>119.2957343884579</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.8923406310217</v>
       </c>
       <c r="I11" t="n">
-        <v>84.05696156936624</v>
+        <v>84.05696156936628</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>134.2967359029903</v>
       </c>
       <c r="T11" t="n">
-        <v>134.2945281487866</v>
+        <v>208.7414274819175</v>
       </c>
       <c r="U11" t="n">
         <v>251.0833219503089</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>311.7910393229228</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>95.29073596310562</v>
       </c>
       <c r="I12" t="n">
-        <v>28.98974822556669</v>
+        <v>28.9897482255667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>102.9616286517214</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>111.216261122759</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.1560209185679</v>
+        <v>111.1560209185681</v>
       </c>
       <c r="S13" t="n">
         <v>198.3826839307978</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.6608008889482</v>
       </c>
       <c r="U13" t="n">
         <v>286.2387980134355</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.832045442656612</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>377.7707150412719</v>
+        <v>377.7707150412718</v>
       </c>
       <c r="C14" t="n">
-        <v>360.3097651487989</v>
+        <v>360.3097651487988</v>
       </c>
       <c r="D14" t="n">
-        <v>349.7199149984743</v>
+        <v>349.7199149984742</v>
       </c>
       <c r="E14" t="n">
-        <v>376.9672434500531</v>
+        <v>376.967243450053</v>
       </c>
       <c r="F14" t="n">
-        <v>401.9129191195028</v>
+        <v>401.9129191195027</v>
       </c>
       <c r="G14" t="n">
         <v>407.0604739238312</v>
       </c>
       <c r="H14" t="n">
-        <v>300.9292140088131</v>
+        <v>300.929214008813</v>
       </c>
       <c r="I14" t="n">
-        <v>79.0938349471576</v>
+        <v>79.09383494715755</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>129.3336092807816</v>
       </c>
       <c r="T14" t="n">
-        <v>203.7783008597088</v>
+        <v>203.7783008597087</v>
       </c>
       <c r="U14" t="n">
-        <v>246.1201953280993</v>
+        <v>246.1201953281002</v>
       </c>
       <c r="V14" t="n">
         <v>322.7891318479262</v>
@@ -1670,7 +1670,7 @@
         <v>344.2778420952043</v>
       </c>
       <c r="X14" t="n">
-        <v>364.7679740562604</v>
+        <v>364.7679740562603</v>
       </c>
       <c r="Y14" t="n">
         <v>381.2748120338449</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>54.32371897402609</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>143.6523463960037</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>141.4708360243605</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>106.1928942963594</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>216.6976742667395</v>
+        <v>216.6976742667394</v>
       </c>
       <c r="U16" t="n">
-        <v>281.2756713912269</v>
+        <v>281.2756713912268</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>247.1745167016193</v>
       </c>
       <c r="W16" t="n">
-        <v>183.3812904991937</v>
+        <v>281.5598717143823</v>
       </c>
       <c r="X16" t="n">
-        <v>220.7465287668285</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>213.6215267298861</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.7707150412719</v>
+        <v>377.7707150412718</v>
       </c>
       <c r="C17" t="n">
-        <v>360.3097651487989</v>
+        <v>360.3097651487988</v>
       </c>
       <c r="D17" t="n">
-        <v>349.7199149984743</v>
+        <v>349.7199149984742</v>
       </c>
       <c r="E17" t="n">
-        <v>376.9672434500531</v>
+        <v>376.967243450053</v>
       </c>
       <c r="F17" t="n">
-        <v>401.9129191195028</v>
+        <v>401.9129191195027</v>
       </c>
       <c r="G17" t="n">
         <v>407.0604739238312</v>
       </c>
       <c r="H17" t="n">
-        <v>300.9292140088131</v>
+        <v>300.929214008813</v>
       </c>
       <c r="I17" t="n">
-        <v>79.0938349471576</v>
+        <v>79.09383494715755</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>129.3336092807816</v>
       </c>
       <c r="T17" t="n">
-        <v>203.7783008597088</v>
+        <v>203.7783008597087</v>
       </c>
       <c r="U17" t="n">
         <v>246.1201953281002</v>
@@ -1907,7 +1907,7 @@
         <v>344.2778420952043</v>
       </c>
       <c r="X17" t="n">
-        <v>364.7679740562604</v>
+        <v>364.7679740562603</v>
       </c>
       <c r="Y17" t="n">
         <v>381.2748120338449</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>174.8688535597286</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>162.2836944764191</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>141.4708360243605</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.1863369672139</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>193.4195573085891</v>
       </c>
       <c r="T19" t="n">
-        <v>111.7590839668468</v>
+        <v>216.6976742667394</v>
       </c>
       <c r="U19" t="n">
-        <v>281.2756713912269</v>
+        <v>281.2756713912268</v>
       </c>
       <c r="V19" t="n">
         <v>247.1745167016193</v>
       </c>
       <c r="W19" t="n">
-        <v>281.5598717143823</v>
+        <v>125.125906369917</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.7707150412718</v>
+        <v>377.7707150412719</v>
       </c>
       <c r="C20" t="n">
-        <v>360.3097651487988</v>
+        <v>360.3097651487989</v>
       </c>
       <c r="D20" t="n">
-        <v>349.7199149984742</v>
+        <v>349.7199149984743</v>
       </c>
       <c r="E20" t="n">
-        <v>376.967243450053</v>
+        <v>376.9672434500531</v>
       </c>
       <c r="F20" t="n">
-        <v>401.9129191195027</v>
+        <v>401.9129191195028</v>
       </c>
       <c r="G20" t="n">
         <v>407.0604739238312</v>
       </c>
       <c r="H20" t="n">
-        <v>300.929214008813</v>
+        <v>300.9292140088131</v>
       </c>
       <c r="I20" t="n">
-        <v>79.09383494715755</v>
+        <v>79.09383494715756</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>129.3336092807816</v>
       </c>
       <c r="T20" t="n">
-        <v>203.7783008597087</v>
+        <v>203.7783008597083</v>
       </c>
       <c r="U20" t="n">
         <v>246.1201953281002</v>
@@ -2144,7 +2144,7 @@
         <v>344.2778420952043</v>
       </c>
       <c r="X20" t="n">
-        <v>364.7679740562603</v>
+        <v>364.7679740562604</v>
       </c>
       <c r="Y20" t="n">
         <v>381.2748120338449</v>
@@ -2178,7 +2178,7 @@
         <v>95.29073596310562</v>
       </c>
       <c r="I21" t="n">
-        <v>28.9897482255667</v>
+        <v>28.98974822556669</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>162.2836944764192</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>161.5569447802359</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.1863369672138</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>106.2531345005503</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.1928942963594</v>
+        <v>106.1928942963589</v>
       </c>
       <c r="S22" t="n">
-        <v>163.936689105085</v>
+        <v>193.4195573085891</v>
       </c>
       <c r="T22" t="n">
-        <v>216.6976742667396</v>
+        <v>216.6976742667395</v>
       </c>
       <c r="U22" t="n">
-        <v>281.2756713912268</v>
+        <v>281.2756713912269</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>159.4165106205232</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>281.5598717143823</v>
       </c>
       <c r="X22" t="n">
-        <v>220.7465287668284</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>377.7707150412718</v>
+        <v>377.7707150412719</v>
       </c>
       <c r="C23" t="n">
-        <v>360.3097651487988</v>
+        <v>360.3097651487989</v>
       </c>
       <c r="D23" t="n">
-        <v>349.7199149984742</v>
+        <v>349.7199149984743</v>
       </c>
       <c r="E23" t="n">
-        <v>376.967243450053</v>
+        <v>376.9672434500531</v>
       </c>
       <c r="F23" t="n">
-        <v>401.912919119502</v>
+        <v>401.9129191195028</v>
       </c>
       <c r="G23" t="n">
         <v>407.0604739238312</v>
       </c>
       <c r="H23" t="n">
-        <v>300.929214008813</v>
+        <v>300.9292140088131</v>
       </c>
       <c r="I23" t="n">
-        <v>79.09383494715755</v>
+        <v>79.09383494715759</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>129.3336092807816</v>
       </c>
       <c r="T23" t="n">
-        <v>203.7783008597087</v>
+        <v>203.7783008597088</v>
       </c>
       <c r="U23" t="n">
         <v>246.1201953281002</v>
@@ -2381,7 +2381,7 @@
         <v>344.2778420952043</v>
       </c>
       <c r="X23" t="n">
-        <v>364.7679740562603</v>
+        <v>364.7679740562598</v>
       </c>
       <c r="Y23" t="n">
         <v>381.2748120338449</v>
@@ -2415,7 +2415,7 @@
         <v>95.29073596310562</v>
       </c>
       <c r="I24" t="n">
-        <v>28.9897482255667</v>
+        <v>28.98974822556669</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.8688535597286</v>
+        <v>47.19871693708333</v>
       </c>
       <c r="C25" t="n">
-        <v>162.2836944764191</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.1863369672138</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>106.2531345005503</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>106.1928942963594</v>
       </c>
       <c r="S25" t="n">
-        <v>94.53398014553255</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>216.6976742667394</v>
+        <v>216.6976742667395</v>
       </c>
       <c r="U25" t="n">
-        <v>281.2756713912268</v>
+        <v>281.2756713912269</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>247.1745167016193</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>281.5598717143823</v>
       </c>
       <c r="X25" t="n">
-        <v>220.7465287668284</v>
+        <v>220.7465287668285</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>353.2029393906703</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>325.1521393478727</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.8923406310217</v>
       </c>
       <c r="I26" t="n">
-        <v>54.52605929655604</v>
+        <v>84.05696156936628</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>251.0833219503089</v>
       </c>
       <c r="V26" t="n">
-        <v>312.3671636826248</v>
+        <v>298.2213561973247</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>354.3460058909588</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.3010779091271</v>
+        <v>83.74483321497732</v>
       </c>
       <c r="C28" t="n">
         <v>137.7159188258176</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>116.9030603737589</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>115.890145750121</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.9891691296343</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>119.6185613166123</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>81.62511864575758</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.8517816579876</v>
       </c>
       <c r="T28" t="n">
-        <v>192.1298986161379</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>256.7078957406253</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>222.6067410510178</v>
       </c>
       <c r="W28" t="n">
         <v>256.9920960637808</v>
       </c>
       <c r="X28" t="n">
-        <v>177.883210331201</v>
+        <v>196.1787531162269</v>
       </c>
       <c r="Y28" t="n">
         <v>189.0537510792846</v>
@@ -2795,10 +2795,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>353.939469239357</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>357.3625944216602</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>387.4558248954384</v>
       </c>
       <c r="H29" t="n">
-        <v>305.8923406310217</v>
+        <v>305.1487682496949</v>
       </c>
       <c r="I29" t="n">
         <v>84.05696156936628</v>
@@ -2849,7 +2849,7 @@
         <v>251.0833219503089</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>303.1844828195334</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>361.670163005452</v>
+        <v>361.6701630054521</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.2642045313357</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>142.6790454480263</v>
       </c>
       <c r="D31" t="n">
-        <v>124.0476973676108</v>
+        <v>124.0476973676109</v>
       </c>
       <c r="E31" t="n">
-        <v>121.8661869959676</v>
+        <v>121.8661869959677</v>
       </c>
       <c r="F31" t="n">
-        <v>120.8532723723297</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>124.581687938821</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.6484854721574</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>86.58824526796661</v>
       </c>
       <c r="S31" t="n">
-        <v>103.6573487475232</v>
+        <v>173.8149082801963</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>197.0930252383467</v>
       </c>
       <c r="U31" t="n">
-        <v>261.671022362834</v>
+        <v>261.6710223628338</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>227.5698676732265</v>
       </c>
       <c r="W31" t="n">
-        <v>261.9552226859894</v>
+        <v>25.21512984039305</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.0168777014932</v>
+        <v>194.0168777014933</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>360.1566082050223</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9073169800557</v>
+        <v>412.0236005460399</v>
       </c>
       <c r="H32" t="n">
         <v>305.8923406310217</v>
       </c>
       <c r="I32" t="n">
-        <v>84.05696156936628</v>
+        <v>14.72634580222004</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>300.4004849113228</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82540515142189</v>
+        <v>41.82540515142178</v>
       </c>
       <c r="S34" t="n">
         <v>129.0520681636516</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>377.6175580974953</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.0236005460399</v>
+        <v>342.6929847788937</v>
       </c>
       <c r="H35" t="n">
         <v>305.8923406310217</v>
@@ -3317,7 +3317,7 @@
         <v>134.2967359029903</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7414274819175</v>
+        <v>203.6251439159331</v>
       </c>
       <c r="U35" t="n">
         <v>251.0833219503089</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>279.9103529502668</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>110.5013644147911</v>
       </c>
       <c r="C37" t="n">
-        <v>97.91620533148163</v>
+        <v>97.91620533148159</v>
       </c>
       <c r="D37" t="n">
-        <v>79.28485725106616</v>
+        <v>79.28485725106611</v>
       </c>
       <c r="E37" t="n">
-        <v>77.10334687942297</v>
+        <v>77.10334687942293</v>
       </c>
       <c r="F37" t="n">
-        <v>76.09043225578505</v>
+        <v>76.090432255785</v>
       </c>
       <c r="G37" t="n">
-        <v>97.18945563529839</v>
+        <v>97.18945563529834</v>
       </c>
       <c r="H37" t="n">
-        <v>79.81884782227634</v>
+        <v>79.81884782227664</v>
       </c>
       <c r="I37" t="n">
-        <v>41.88564535561279</v>
+        <v>41.88564535561275</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.82540515142192</v>
+        <v>41.82540515142188</v>
       </c>
       <c r="S37" t="n">
         <v>129.0520681636516</v>
@@ -3478,7 +3478,7 @@
         <v>152.3301851218019</v>
       </c>
       <c r="U37" t="n">
-        <v>216.9081822462894</v>
+        <v>216.9081822462893</v>
       </c>
       <c r="V37" t="n">
         <v>182.8070275566818</v>
@@ -3487,10 +3487,10 @@
         <v>217.1923825694448</v>
       </c>
       <c r="X37" t="n">
-        <v>156.379039621891</v>
+        <v>156.3790396218909</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.2540375849486</v>
+        <v>149.2540375849485</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>134.2967359029903</v>
       </c>
       <c r="T38" t="n">
-        <v>203.6251439159331</v>
+        <v>208.7414274819175</v>
       </c>
       <c r="U38" t="n">
         <v>251.0833219503089</v>
@@ -3566,10 +3566,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>300.4004849113228</v>
+        <v>364.6148171124836</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>316.9073228889073</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>110.5013644147911</v>
       </c>
       <c r="C40" t="n">
-        <v>97.91620533148159</v>
+        <v>97.91620533148161</v>
       </c>
       <c r="D40" t="n">
-        <v>79.28485725106611</v>
+        <v>79.28485725106613</v>
       </c>
       <c r="E40" t="n">
-        <v>77.10334687942293</v>
+        <v>77.10334687942294</v>
       </c>
       <c r="F40" t="n">
-        <v>76.090432255785</v>
+        <v>76.09043225578502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.18945563529834</v>
+        <v>97.18945563529901</v>
       </c>
       <c r="H40" t="n">
-        <v>79.8188478222763</v>
+        <v>79.81884782227631</v>
       </c>
       <c r="I40" t="n">
-        <v>41.88564535561275</v>
+        <v>41.88564535561277</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.82540515142188</v>
+        <v>41.82540515142189</v>
       </c>
       <c r="S40" t="n">
         <v>129.0520681636516</v>
@@ -3715,7 +3715,7 @@
         <v>152.3301851218019</v>
       </c>
       <c r="U40" t="n">
-        <v>216.9081822462898</v>
+        <v>216.9081822462891</v>
       </c>
       <c r="V40" t="n">
         <v>182.8070275566818</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>406.9073169800557</v>
+        <v>412.0236005460399</v>
       </c>
       <c r="H41" t="n">
-        <v>305.8923406310217</v>
+        <v>300.7760570650366</v>
       </c>
       <c r="I41" t="n">
         <v>84.05696156936628</v>
@@ -3791,13 +3791,13 @@
         <v>134.2967359029903</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7414274819175</v>
+        <v>139.4108117147713</v>
       </c>
       <c r="U41" t="n">
         <v>251.0833219503089</v>
       </c>
       <c r="V41" t="n">
-        <v>258.4216427029887</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>110.5013644147911</v>
       </c>
       <c r="C43" t="n">
-        <v>97.91620533148163</v>
+        <v>97.91620533148166</v>
       </c>
       <c r="D43" t="n">
-        <v>79.28485725106616</v>
+        <v>79.28485725106619</v>
       </c>
       <c r="E43" t="n">
-        <v>77.10334687942297</v>
+        <v>77.103346879423</v>
       </c>
       <c r="F43" t="n">
-        <v>76.09043225578505</v>
+        <v>76.09043225578507</v>
       </c>
       <c r="G43" t="n">
-        <v>97.18945563529839</v>
+        <v>97.18945563529842</v>
       </c>
       <c r="H43" t="n">
-        <v>79.81884782227634</v>
+        <v>79.81884782227637</v>
       </c>
       <c r="I43" t="n">
-        <v>41.88564535561279</v>
+        <v>41.88564535561282</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.82540515142192</v>
+        <v>41.82540515142195</v>
       </c>
       <c r="S43" t="n">
-        <v>129.0520681636516</v>
+        <v>129.0520681636517</v>
       </c>
       <c r="T43" t="n">
-        <v>152.3301851218019</v>
+        <v>152.330185121802</v>
       </c>
       <c r="U43" t="n">
         <v>216.9081822462894</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>377.6175580974953</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,10 +3992,10 @@
         <v>412.0236005460399</v>
       </c>
       <c r="H44" t="n">
-        <v>236.5617248638755</v>
+        <v>305.8923406310217</v>
       </c>
       <c r="I44" t="n">
-        <v>84.05696156936628</v>
+        <v>14.72634580222004</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>381.1216550900691</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>568.2253115112491</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="C2" t="n">
-        <v>568.2253115112491</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="D2" t="n">
-        <v>568.2253115112491</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="E2" t="n">
-        <v>302.3242671156262</v>
+        <v>306.4627520174971</v>
       </c>
       <c r="F2" t="n">
-        <v>36.42322272000341</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4337,10 +4337,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4355,25 +4355,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="V2" t="n">
-        <v>787.0670914110435</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="W2" t="n">
-        <v>568.2253115112491</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="X2" t="n">
-        <v>568.2253115112491</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="Y2" t="n">
-        <v>568.2253115112491</v>
+        <v>324.1881920990789</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.9776426505744</v>
+        <v>692.4457168695818</v>
       </c>
       <c r="C3" t="n">
-        <v>318.9776426505744</v>
+        <v>517.9926875884548</v>
       </c>
       <c r="D3" t="n">
-        <v>318.9776426505744</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="E3" t="n">
-        <v>159.7401876451189</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="F3" t="n">
-        <v>159.7401876451189</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>99.34055552906347</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9440834239259</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="M3" t="n">
-        <v>339.9440834239259</v>
+        <v>414.9398465113634</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360758</v>
+        <v>675.5494601235133</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4437,22 +4437,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>1009.195626901525</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U3" t="n">
-        <v>780.9752981437298</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V3" t="n">
-        <v>780.9752981437298</v>
+        <v>692.4457168695818</v>
       </c>
       <c r="W3" t="n">
-        <v>526.7379414155282</v>
+        <v>692.4457168695818</v>
       </c>
       <c r="X3" t="n">
-        <v>526.7379414155282</v>
+        <v>692.4457168695818</v>
       </c>
       <c r="Y3" t="n">
-        <v>318.9776426505744</v>
+        <v>692.4457168695818</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>32.39228805831763</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
         <v>21.05936271613333</v>
@@ -4528,10 +4528,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
       <c r="C5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
       <c r="D5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
       <c r="E5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
       <c r="F5" t="n">
-        <v>522.6132126646166</v>
+        <v>243.6672392278939</v>
       </c>
       <c r="G5" t="n">
-        <v>507.2981131420717</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
-        <v>228.352139705349</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I5" t="n">
         <v>22.09252109618844</v>
@@ -4568,10 +4568,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M5" t="n">
         <v>586.3582880173956</v>
@@ -4580,7 +4580,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4604,13 +4604,13 @@
         <v>529.5587134138201</v>
       </c>
       <c r="W5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
       <c r="X5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
       <c r="Y5" t="n">
-        <v>529.5587134138201</v>
+        <v>250.6127399770974</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>355.783005382771</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C6" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D6" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E6" t="n">
         <v>22.09252109618844</v>
@@ -4653,13 +4653,13 @@
         <v>411.954469746149</v>
       </c>
       <c r="M6" t="n">
-        <v>411.954469746149</v>
+        <v>485.8202418432343</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112777</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945615</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P6" t="n">
         <v>1025.71200399185</v>
@@ -4671,25 +4671,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T6" t="n">
-        <v>902.7461548375312</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U6" t="n">
-        <v>902.7461548375312</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="V6" t="n">
-        <v>667.5940466057884</v>
+        <v>652.3055136094119</v>
       </c>
       <c r="W6" t="n">
-        <v>563.6345055883038</v>
+        <v>398.0681568812104</v>
       </c>
       <c r="X6" t="n">
-        <v>355.783005382771</v>
+        <v>398.0681568812104</v>
       </c>
       <c r="Y6" t="n">
-        <v>355.783005382771</v>
+        <v>190.3078581162565</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2509.751412524467</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2136.285654263387</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.146322287575</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4872,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>332.1920961943574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>174.4437236268876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J11" t="n">
-        <v>359.4759795651806</v>
+        <v>359.4759795651808</v>
       </c>
       <c r="K11" t="n">
-        <v>875.4383195163111</v>
+        <v>875.4383195163109</v>
       </c>
       <c r="L11" t="n">
         <v>1567.811854278943</v>
@@ -5069,19 +5069,19 @@
         <v>4653.159291851988</v>
       </c>
       <c r="T11" t="n">
-        <v>4517.50825331786</v>
+        <v>4442.309365102577</v>
       </c>
       <c r="U11" t="n">
-        <v>4263.888736196336</v>
+        <v>4188.689847981052</v>
       </c>
       <c r="V11" t="n">
-        <v>3932.825848852765</v>
+        <v>3857.626960637482</v>
       </c>
       <c r="W11" t="n">
-        <v>3580.057193582651</v>
+        <v>3504.858305367367</v>
       </c>
       <c r="X11" t="n">
-        <v>3206.591435321571</v>
+        <v>3131.392547106288</v>
       </c>
       <c r="Y11" t="n">
         <v>2816.452103345759</v>
@@ -5106,10 +5106,10 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2707041352263</v>
+        <v>358.2707041352264</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3120938236378</v>
+        <v>221.3120938236379</v>
       </c>
       <c r="H12" t="n">
         <v>125.0588251740362</v>
@@ -5118,28 +5118,28 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J12" t="n">
-        <v>259.1406232108725</v>
+        <v>134.3104982238677</v>
       </c>
       <c r="K12" t="n">
-        <v>664.9771983715331</v>
+        <v>278.3264887420754</v>
       </c>
       <c r="L12" t="n">
-        <v>1232.24167171467</v>
+        <v>885.4282436764879</v>
       </c>
       <c r="M12" t="n">
-        <v>1531.631993111096</v>
+        <v>1184.818565072914</v>
       </c>
       <c r="N12" t="n">
-        <v>1853.354930366927</v>
+        <v>1981.090452928863</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.448769079719</v>
+        <v>2342.112169550771</v>
       </c>
       <c r="P12" t="n">
-        <v>2324.494996620014</v>
+        <v>2541.158397091066</v>
       </c>
       <c r="Q12" t="n">
-        <v>2615.609446910309</v>
+        <v>2624.296332522871</v>
       </c>
       <c r="R12" t="n">
         <v>2624.296332522871</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.0306475937159</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="C13" t="n">
-        <v>460.0306475937159</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="D13" t="n">
-        <v>460.0306475937159</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="E13" t="n">
-        <v>312.1175540113228</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="F13" t="n">
-        <v>312.1175540113228</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="G13" t="n">
-        <v>312.1175540113228</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="H13" t="n">
-        <v>208.1159089085739</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="I13" t="n">
         <v>95.77625120881734</v>
@@ -5200,13 +5200,13 @@
         <v>106.303923458612</v>
       </c>
       <c r="K13" t="n">
-        <v>253.4409596517395</v>
+        <v>253.4409596517394</v>
       </c>
       <c r="L13" t="n">
         <v>497.2521430733561</v>
       </c>
       <c r="M13" t="n">
-        <v>764.7059742355515</v>
+        <v>764.7059742355514</v>
       </c>
       <c r="N13" t="n">
         <v>1031.234967503269</v>
@@ -5221,28 +5221,28 @@
         <v>1471.464120759146</v>
       </c>
       <c r="R13" t="n">
-        <v>1359.185311750492</v>
+        <v>1359.185311750491</v>
       </c>
       <c r="S13" t="n">
         <v>1158.798762325443</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.798762325443</v>
+        <v>934.8989634477175</v>
       </c>
       <c r="U13" t="n">
-        <v>869.668663321973</v>
+        <v>645.7688644442472</v>
       </c>
       <c r="V13" t="n">
-        <v>869.668663321973</v>
+        <v>391.0843762383604</v>
       </c>
       <c r="W13" t="n">
-        <v>869.668663321973</v>
+        <v>101.6672062013998</v>
       </c>
       <c r="X13" t="n">
-        <v>641.6791124239556</v>
+        <v>101.6672062013998</v>
       </c>
       <c r="Y13" t="n">
-        <v>641.6791124239556</v>
+        <v>95.77625120881734</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2394.759448781172</v>
+        <v>2394.759448781171</v>
       </c>
       <c r="C14" t="n">
-        <v>2030.810191055113</v>
+        <v>2030.810191055112</v>
       </c>
       <c r="D14" t="n">
-        <v>1677.557751662714</v>
+        <v>1677.557751662713</v>
       </c>
       <c r="E14" t="n">
-        <v>1296.782758278822</v>
+        <v>1296.782758278821</v>
       </c>
       <c r="F14" t="n">
-        <v>890.8101127035668</v>
+        <v>890.810112703566</v>
       </c>
       <c r="G14" t="n">
-        <v>479.637916820909</v>
+        <v>479.6379168209082</v>
       </c>
       <c r="H14" t="n">
-        <v>175.6690137817039</v>
+        <v>175.6690137817031</v>
       </c>
       <c r="I14" t="n">
         <v>95.77625120881734</v>
       </c>
       <c r="J14" t="n">
-        <v>359.4759795651805</v>
+        <v>359.4759795651808</v>
       </c>
       <c r="K14" t="n">
-        <v>875.438319516311</v>
+        <v>875.4383195163109</v>
       </c>
       <c r="L14" t="n">
         <v>1567.811854278943</v>
       </c>
       <c r="M14" t="n">
-        <v>2354.817363273224</v>
+        <v>2354.817363273225</v>
       </c>
       <c r="N14" t="n">
         <v>3139.925446646148</v>
@@ -5294,7 +5294,7 @@
         <v>3836.093108900405</v>
       </c>
       <c r="P14" t="n">
-        <v>4392.581719318776</v>
+        <v>4392.581719318775</v>
       </c>
       <c r="Q14" t="n">
         <v>4733.259730444033</v>
@@ -5303,25 +5303,25 @@
         <v>4788.812560440867</v>
       </c>
       <c r="S14" t="n">
-        <v>4658.17255106634</v>
+        <v>4658.172551066339</v>
       </c>
       <c r="T14" t="n">
-        <v>4452.335883531281</v>
+        <v>4452.33588353128</v>
       </c>
       <c r="U14" t="n">
-        <v>4203.72962562411</v>
+        <v>4203.729625624108</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.679997494891</v>
+        <v>3877.67999749489</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.924601439129</v>
+        <v>3529.924601439128</v>
       </c>
       <c r="X14" t="n">
-        <v>3161.472102392401</v>
+        <v>3161.4721023924</v>
       </c>
       <c r="Y14" t="n">
-        <v>2776.346029630942</v>
+        <v>2776.346029630941</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J15" t="n">
-        <v>259.1406232108725</v>
+        <v>134.3104982238677</v>
       </c>
       <c r="K15" t="n">
-        <v>403.1566137290802</v>
+        <v>540.1470733845282</v>
       </c>
       <c r="L15" t="n">
-        <v>1010.258368663493</v>
+        <v>1058.98137610176</v>
       </c>
       <c r="M15" t="n">
-        <v>1309.648690059918</v>
+        <v>1358.371697498186</v>
       </c>
       <c r="N15" t="n">
-        <v>1631.37162731575</v>
+        <v>1680.094634754017</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.465466028541</v>
+        <v>2342.112169550771</v>
       </c>
       <c r="P15" t="n">
-        <v>2333.181882232575</v>
+        <v>2541.158397091066</v>
       </c>
       <c r="Q15" t="n">
         <v>2624.296332522871</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.7794657748418</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="C16" t="n">
-        <v>383.7794657748418</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="D16" t="n">
-        <v>238.6760855768582</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="E16" t="n">
         <v>95.77625120881734</v>
@@ -5434,52 +5434,52 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J16" t="n">
-        <v>111.2174188145986</v>
+        <v>111.2174188145987</v>
       </c>
       <c r="K16" t="n">
-        <v>263.2679503637126</v>
+        <v>263.2679503637125</v>
       </c>
       <c r="L16" t="n">
-        <v>511.9926291413157</v>
+        <v>511.9926291413158</v>
       </c>
       <c r="M16" t="n">
-        <v>784.3599556594976</v>
+        <v>784.3599556594977</v>
       </c>
       <c r="N16" t="n">
-        <v>1055.802444283201</v>
+        <v>1055.802444283202</v>
       </c>
       <c r="O16" t="n">
         <v>1290.882308375064</v>
       </c>
       <c r="P16" t="n">
-        <v>1469.222212424609</v>
+        <v>1469.22221242461</v>
       </c>
       <c r="Q16" t="n">
         <v>1510.772083607039</v>
       </c>
       <c r="R16" t="n">
-        <v>1510.772083607039</v>
+        <v>1403.506533812737</v>
       </c>
       <c r="S16" t="n">
-        <v>1510.772083607039</v>
+        <v>1403.506533812737</v>
       </c>
       <c r="T16" t="n">
-        <v>1291.885543943665</v>
+        <v>1184.619994149363</v>
       </c>
       <c r="U16" t="n">
-        <v>1007.768704154547</v>
+        <v>900.5031543602454</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.768704154547</v>
+        <v>650.8319253687107</v>
       </c>
       <c r="W16" t="n">
-        <v>822.535077387685</v>
+        <v>366.4280145461024</v>
       </c>
       <c r="X16" t="n">
-        <v>599.5587857040198</v>
+        <v>366.4280145461024</v>
       </c>
       <c r="Y16" t="n">
-        <v>383.7794657748418</v>
+        <v>150.6486946169245</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2394.759448781173</v>
+        <v>2394.759448781172</v>
       </c>
       <c r="C17" t="n">
-        <v>2030.810191055114</v>
+        <v>2030.810191055112</v>
       </c>
       <c r="D17" t="n">
-        <v>1677.557751662715</v>
+        <v>1677.557751662714</v>
       </c>
       <c r="E17" t="n">
-        <v>1296.782758278823</v>
+        <v>1296.782758278822</v>
       </c>
       <c r="F17" t="n">
-        <v>890.8101127035679</v>
+        <v>890.8101127035665</v>
       </c>
       <c r="G17" t="n">
-        <v>479.63791682091</v>
+        <v>479.6379168209087</v>
       </c>
       <c r="H17" t="n">
-        <v>175.6690137817048</v>
+        <v>175.6690137817038</v>
       </c>
       <c r="I17" t="n">
         <v>95.77625120881734</v>
@@ -5540,25 +5540,25 @@
         <v>4788.812560440867</v>
       </c>
       <c r="S17" t="n">
-        <v>4658.172551066342</v>
+        <v>4658.172551066339</v>
       </c>
       <c r="T17" t="n">
-        <v>4452.335883531282</v>
+        <v>4452.335883531281</v>
       </c>
       <c r="U17" t="n">
-        <v>4203.72962562411</v>
+        <v>4203.729625624109</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.679997494892</v>
+        <v>3877.67999749489</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.92460143913</v>
+        <v>3529.924601439128</v>
       </c>
       <c r="X17" t="n">
-        <v>3161.472102392402</v>
+        <v>3161.472102392401</v>
       </c>
       <c r="Y17" t="n">
-        <v>2776.346029630943</v>
+        <v>2776.346029630941</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>259.1406232108725</v>
       </c>
       <c r="K18" t="n">
-        <v>664.9771983715329</v>
+        <v>531.2238455181823</v>
       </c>
       <c r="L18" t="n">
-        <v>1272.078953305946</v>
+        <v>771.1936586021702</v>
       </c>
       <c r="M18" t="n">
-        <v>1571.469274702371</v>
+        <v>1531.631993111096</v>
       </c>
       <c r="N18" t="n">
-        <v>1893.192211958203</v>
+        <v>1853.354930366927</v>
       </c>
       <c r="O18" t="n">
-        <v>2333.425283938209</v>
+        <v>2125.448769079719</v>
       </c>
       <c r="P18" t="n">
-        <v>2532.471511478504</v>
+        <v>2324.494996620014</v>
       </c>
       <c r="Q18" t="n">
         <v>2615.609446910309</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.3188501902056</v>
+        <v>259.699174922372</v>
       </c>
       <c r="C19" t="n">
-        <v>384.3188501902056</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="D19" t="n">
-        <v>384.3188501902056</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="E19" t="n">
-        <v>241.4190158221647</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="F19" t="n">
-        <v>241.4190158221647</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="G19" t="n">
-        <v>241.4190158221647</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="H19" t="n">
         <v>95.77625120881734</v>
@@ -5671,52 +5671,52 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J19" t="n">
-        <v>111.2174188145986</v>
+        <v>111.2174188145987</v>
       </c>
       <c r="K19" t="n">
-        <v>263.2679503637125</v>
+        <v>263.2679503637127</v>
       </c>
       <c r="L19" t="n">
-        <v>511.9926291413158</v>
+        <v>511.9926291413159</v>
       </c>
       <c r="M19" t="n">
-        <v>784.3599556594977</v>
+        <v>784.3599556594979</v>
       </c>
       <c r="N19" t="n">
         <v>1055.802444283202</v>
       </c>
       <c r="O19" t="n">
-        <v>1290.882308375064</v>
+        <v>1290.882308375065</v>
       </c>
       <c r="P19" t="n">
         <v>1469.22221242461</v>
       </c>
       <c r="Q19" t="n">
-        <v>1510.772083607038</v>
+        <v>1510.772083607039</v>
       </c>
       <c r="R19" t="n">
-        <v>1510.772083607038</v>
+        <v>1510.772083607039</v>
       </c>
       <c r="S19" t="n">
-        <v>1315.398793396342</v>
+        <v>1315.398793396343</v>
       </c>
       <c r="T19" t="n">
-        <v>1202.510829793467</v>
+        <v>1096.51225373297</v>
       </c>
       <c r="U19" t="n">
-        <v>918.3939900043488</v>
+        <v>812.3954139438517</v>
       </c>
       <c r="V19" t="n">
-        <v>668.7227610128141</v>
+        <v>562.724184952317</v>
       </c>
       <c r="W19" t="n">
-        <v>384.3188501902056</v>
+        <v>436.3343805382594</v>
       </c>
       <c r="X19" t="n">
-        <v>384.3188501902056</v>
+        <v>436.3343805382594</v>
       </c>
       <c r="Y19" t="n">
-        <v>384.3188501902056</v>
+        <v>436.3343805382594</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2394.759448781171</v>
+        <v>2394.759448781172</v>
       </c>
       <c r="C20" t="n">
-        <v>2030.810191055112</v>
+        <v>2030.810191055113</v>
       </c>
       <c r="D20" t="n">
-        <v>1677.557751662713</v>
+        <v>1677.557751662714</v>
       </c>
       <c r="E20" t="n">
         <v>1296.782758278822</v>
       </c>
       <c r="F20" t="n">
-        <v>890.8101127035665</v>
+        <v>890.8101127035668</v>
       </c>
       <c r="G20" t="n">
-        <v>479.6379168209087</v>
+        <v>479.6379168209089</v>
       </c>
       <c r="H20" t="n">
         <v>175.6690137817038</v>
@@ -5750,10 +5750,10 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J20" t="n">
-        <v>359.4759795651808</v>
+        <v>359.4759795651806</v>
       </c>
       <c r="K20" t="n">
-        <v>875.4383195163109</v>
+        <v>875.4383195163111</v>
       </c>
       <c r="L20" t="n">
         <v>1567.811854278943</v>
@@ -5765,10 +5765,10 @@
         <v>3139.925446646148</v>
       </c>
       <c r="O20" t="n">
-        <v>3836.093108900405</v>
+        <v>3836.093108900406</v>
       </c>
       <c r="P20" t="n">
-        <v>4392.581719318775</v>
+        <v>4392.581719318776</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.259730444033</v>
@@ -5783,19 +5783,19 @@
         <v>4452.335883531281</v>
       </c>
       <c r="U20" t="n">
-        <v>4203.729625624108</v>
+        <v>4203.729625624109</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.67999749489</v>
+        <v>3877.679997494891</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.924601439128</v>
+        <v>3529.924601439129</v>
       </c>
       <c r="X20" t="n">
-        <v>3161.4721023924</v>
+        <v>3161.472102392401</v>
       </c>
       <c r="Y20" t="n">
-        <v>2776.346029630941</v>
+        <v>2776.346029630942</v>
       </c>
     </row>
     <row r="21">
@@ -5817,10 +5817,10 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2707041352264</v>
+        <v>358.2707041352263</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3120938236379</v>
+        <v>221.3120938236378</v>
       </c>
       <c r="H21" t="n">
         <v>125.0588251740362</v>
@@ -5829,28 +5829,28 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J21" t="n">
-        <v>259.1406232108725</v>
+        <v>134.3104982238678</v>
       </c>
       <c r="K21" t="n">
-        <v>664.9771983715329</v>
+        <v>278.3264887420755</v>
       </c>
       <c r="L21" t="n">
-        <v>925.650416373694</v>
+        <v>885.4282436764881</v>
       </c>
       <c r="M21" t="n">
-        <v>1225.04073777012</v>
+        <v>1216.353852157558</v>
       </c>
       <c r="N21" t="n">
-        <v>1546.763675025951</v>
+        <v>1538.076789413389</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.857513738742</v>
+        <v>1810.170628126181</v>
       </c>
       <c r="P21" t="n">
-        <v>2333.181882232575</v>
+        <v>2324.494996620014</v>
       </c>
       <c r="Q21" t="n">
-        <v>2624.296332522871</v>
+        <v>2615.609446910309</v>
       </c>
       <c r="R21" t="n">
         <v>2624.296332522871</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>511.9342474189183</v>
+        <v>259.6991749223721</v>
       </c>
       <c r="C22" t="n">
-        <v>511.9342474189183</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="D22" t="n">
-        <v>511.9342474189183</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="E22" t="n">
-        <v>511.9342474189183</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="F22" t="n">
-        <v>511.9342474189183</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="G22" t="n">
-        <v>348.7454143075689</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="H22" t="n">
-        <v>203.1026496942217</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="I22" t="n">
         <v>95.77625120881734</v>
       </c>
       <c r="J22" t="n">
-        <v>111.2174188145985</v>
+        <v>111.2174188145987</v>
       </c>
       <c r="K22" t="n">
-        <v>263.2679503637125</v>
+        <v>263.2679503637126</v>
       </c>
       <c r="L22" t="n">
-        <v>511.9926291413158</v>
+        <v>511.9926291413159</v>
       </c>
       <c r="M22" t="n">
-        <v>784.3599556594977</v>
+        <v>784.3599556594979</v>
       </c>
       <c r="N22" t="n">
         <v>1055.802444283202</v>
@@ -5935,25 +5935,25 @@
         <v>1403.506533812737</v>
       </c>
       <c r="S22" t="n">
-        <v>1237.913918555075</v>
+        <v>1208.133243602041</v>
       </c>
       <c r="T22" t="n">
-        <v>1019.027378891701</v>
+        <v>989.2467039386675</v>
       </c>
       <c r="U22" t="n">
-        <v>734.9105391025834</v>
+        <v>705.1298641495493</v>
       </c>
       <c r="V22" t="n">
-        <v>734.9105391025834</v>
+        <v>544.1030857449805</v>
       </c>
       <c r="W22" t="n">
-        <v>734.9105391025834</v>
+        <v>259.6991749223721</v>
       </c>
       <c r="X22" t="n">
-        <v>511.9342474189183</v>
+        <v>259.6991749223721</v>
       </c>
       <c r="Y22" t="n">
-        <v>511.9342474189183</v>
+        <v>259.6991749223721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2394.759448781171</v>
+        <v>2394.759448781172</v>
       </c>
       <c r="C23" t="n">
-        <v>2030.810191055111</v>
+        <v>2030.810191055113</v>
       </c>
       <c r="D23" t="n">
-        <v>1677.557751662713</v>
+        <v>1677.557751662714</v>
       </c>
       <c r="E23" t="n">
-        <v>1296.782758278821</v>
+        <v>1296.782758278822</v>
       </c>
       <c r="F23" t="n">
-        <v>890.8101127035666</v>
+        <v>890.8101127035668</v>
       </c>
       <c r="G23" t="n">
-        <v>479.6379168209088</v>
+        <v>479.637916820909</v>
       </c>
       <c r="H23" t="n">
-        <v>175.6690137817037</v>
+        <v>175.6690137817038</v>
       </c>
       <c r="I23" t="n">
-        <v>95.77625120881733</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="J23" t="n">
-        <v>359.4759795651806</v>
+        <v>359.4759795651808</v>
       </c>
       <c r="K23" t="n">
-        <v>875.438319516311</v>
+        <v>875.4383195163114</v>
       </c>
       <c r="L23" t="n">
         <v>1567.811854278943</v>
       </c>
       <c r="M23" t="n">
-        <v>2354.817363273224</v>
+        <v>2354.817363273225</v>
       </c>
       <c r="N23" t="n">
-        <v>3139.925446646148</v>
+        <v>3139.925446646149</v>
       </c>
       <c r="O23" t="n">
-        <v>3836.093108900405</v>
+        <v>3836.093108900406</v>
       </c>
       <c r="P23" t="n">
-        <v>4392.581719318775</v>
+        <v>4392.581719318776</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.259730444032</v>
+        <v>4733.259730444033</v>
       </c>
       <c r="R23" t="n">
-        <v>4788.812560440866</v>
+        <v>4788.812560440867</v>
       </c>
       <c r="S23" t="n">
-        <v>4658.172551066339</v>
+        <v>4658.17255106634</v>
       </c>
       <c r="T23" t="n">
-        <v>4452.33588353128</v>
+        <v>4452.335883531281</v>
       </c>
       <c r="U23" t="n">
-        <v>4203.729625624108</v>
+        <v>4203.729625624109</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.679997494889</v>
+        <v>3877.67999749489</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.924601439127</v>
+        <v>3529.924601439128</v>
       </c>
       <c r="X23" t="n">
-        <v>3161.4721023924</v>
+        <v>3161.472102392401</v>
       </c>
       <c r="Y23" t="n">
-        <v>2776.34602963094</v>
+        <v>2776.346029630942</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2707041352263</v>
+        <v>358.2707041352264</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3120938236378</v>
+        <v>221.3120938236379</v>
       </c>
       <c r="H24" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I24" t="n">
-        <v>95.77625120881733</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="J24" t="n">
-        <v>134.3104982238677</v>
+        <v>134.3104982238678</v>
       </c>
       <c r="K24" t="n">
-        <v>540.1470733845282</v>
+        <v>278.3264887420755</v>
       </c>
       <c r="L24" t="n">
-        <v>780.1168864685161</v>
+        <v>518.2963018260634</v>
       </c>
       <c r="M24" t="n">
-        <v>1079.507207864942</v>
+        <v>817.6866232224892</v>
       </c>
       <c r="N24" t="n">
-        <v>1401.230145120773</v>
+        <v>1546.763675025951</v>
       </c>
       <c r="O24" t="n">
         <v>1818.857513738742</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.6683380211234</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="C25" t="n">
-        <v>348.7454143075689</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7454143075689</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="E25" t="n">
-        <v>348.7454143075689</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="F25" t="n">
-        <v>348.7454143075689</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="G25" t="n">
-        <v>348.7454143075689</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="H25" t="n">
-        <v>203.1026496942216</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="I25" t="n">
-        <v>95.77625120881733</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="J25" t="n">
         <v>111.2174188145987</v>
       </c>
       <c r="K25" t="n">
-        <v>263.2679503637127</v>
+        <v>263.2679503637125</v>
       </c>
       <c r="L25" t="n">
-        <v>511.9926291413159</v>
+        <v>511.9926291413158</v>
       </c>
       <c r="M25" t="n">
-        <v>784.3599556594982</v>
+        <v>784.3599556594977</v>
       </c>
       <c r="N25" t="n">
         <v>1055.802444283202</v>
       </c>
       <c r="O25" t="n">
-        <v>1290.882308375065</v>
+        <v>1290.882308375064</v>
       </c>
       <c r="P25" t="n">
         <v>1469.22221242461</v>
@@ -6169,28 +6169,28 @@
         <v>1510.772083607039</v>
       </c>
       <c r="R25" t="n">
-        <v>1510.772083607039</v>
+        <v>1403.506533812737</v>
       </c>
       <c r="S25" t="n">
-        <v>1415.283214773167</v>
+        <v>1403.506533812737</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.396675109794</v>
+        <v>1184.619994149363</v>
       </c>
       <c r="U25" t="n">
-        <v>912.2798353206761</v>
+        <v>900.5031543602452</v>
       </c>
       <c r="V25" t="n">
-        <v>912.2798353206761</v>
+        <v>650.8319253687105</v>
       </c>
       <c r="W25" t="n">
-        <v>912.2798353206761</v>
+        <v>366.4280145461021</v>
       </c>
       <c r="X25" t="n">
-        <v>689.3035436370109</v>
+        <v>143.4517228624369</v>
       </c>
       <c r="Y25" t="n">
-        <v>689.3035436370109</v>
+        <v>143.4517228624369</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2370.193874851718</v>
+        <v>2429.852263281638</v>
       </c>
       <c r="C26" t="n">
-        <v>2001.231357911306</v>
+        <v>2060.889746341226</v>
       </c>
       <c r="D26" t="n">
-        <v>1672.794853519515</v>
+        <v>1702.624047734475</v>
       </c>
       <c r="E26" t="n">
-        <v>1287.006600921271</v>
+        <v>1316.835795136231</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0206961316635</v>
+        <v>905.8498903466234</v>
       </c>
       <c r="G26" t="n">
-        <v>459.8352410346534</v>
+        <v>489.6644352496133</v>
       </c>
       <c r="H26" t="n">
-        <v>150.8530787810962</v>
+        <v>180.682272996056</v>
       </c>
       <c r="I26" t="n">
         <v>95.77625120881734</v>
       </c>
       <c r="J26" t="n">
-        <v>359.4759795651808</v>
+        <v>359.4759795651812</v>
       </c>
       <c r="K26" t="n">
-        <v>875.4383195163109</v>
+        <v>875.4383195163117</v>
       </c>
       <c r="L26" t="n">
-        <v>1567.811854278943</v>
+        <v>1567.811854278944</v>
       </c>
       <c r="M26" t="n">
-        <v>2354.817363273224</v>
+        <v>2354.817363273225</v>
       </c>
       <c r="N26" t="n">
         <v>3139.925446646148</v>
@@ -6260,16 +6260,16 @@
         <v>4188.689847981052</v>
       </c>
       <c r="V26" t="n">
-        <v>3873.167460422846</v>
+        <v>3887.456154852442</v>
       </c>
       <c r="W26" t="n">
-        <v>3520.398805152731</v>
+        <v>3534.687499582327</v>
       </c>
       <c r="X26" t="n">
-        <v>3146.933046891651</v>
+        <v>3176.762241106611</v>
       </c>
       <c r="Y26" t="n">
-        <v>2756.79371491584</v>
+        <v>2786.6229091308</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J27" t="n">
-        <v>259.1406232108725</v>
+        <v>134.3104982238677</v>
       </c>
       <c r="K27" t="n">
-        <v>664.9771983715329</v>
+        <v>278.3264887420754</v>
       </c>
       <c r="L27" t="n">
-        <v>904.9470114555209</v>
+        <v>518.2963018260633</v>
       </c>
       <c r="M27" t="n">
-        <v>1204.337332851946</v>
+        <v>817.6866232224891</v>
       </c>
       <c r="N27" t="n">
-        <v>1526.060270107778</v>
+        <v>1463.431234282965</v>
       </c>
       <c r="O27" t="n">
-        <v>1818.857513738742</v>
+        <v>2125.448769079719</v>
       </c>
       <c r="P27" t="n">
-        <v>2333.181882232575</v>
+        <v>2324.494996620014</v>
       </c>
       <c r="Q27" t="n">
-        <v>2624.296332522871</v>
+        <v>2615.609446910309</v>
       </c>
       <c r="R27" t="n">
         <v>2624.296332522871</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.2276202956298</v>
+        <v>234.8832399217644</v>
       </c>
       <c r="C28" t="n">
-        <v>590.1206315826827</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="D28" t="n">
-        <v>590.1206315826827</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="E28" t="n">
-        <v>472.0367322152494</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="F28" t="n">
-        <v>354.9759789322989</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="G28" t="n">
-        <v>216.6030808215571</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="H28" t="n">
         <v>95.77625120881734</v>
@@ -6382,10 +6382,10 @@
         <v>95.77625120881734</v>
       </c>
       <c r="J28" t="n">
-        <v>135.5395167086941</v>
+        <v>135.5395167086942</v>
       </c>
       <c r="K28" t="n">
-        <v>311.9121461519036</v>
+        <v>311.9121461519035</v>
       </c>
       <c r="L28" t="n">
         <v>584.9589228236023</v>
@@ -6406,28 +6406,28 @@
         <v>1705.348866759803</v>
       </c>
       <c r="R28" t="n">
-        <v>1705.348866759803</v>
+        <v>1622.899251966108</v>
       </c>
       <c r="S28" t="n">
-        <v>1705.348866759803</v>
+        <v>1452.34189675602</v>
       </c>
       <c r="T28" t="n">
-        <v>1511.278262097037</v>
+        <v>1452.34189675602</v>
       </c>
       <c r="U28" t="n">
-        <v>1511.278262097037</v>
+        <v>1193.040991967509</v>
       </c>
       <c r="V28" t="n">
-        <v>1511.278262097037</v>
+        <v>968.1856979765822</v>
       </c>
       <c r="W28" t="n">
-        <v>1251.690286275036</v>
+        <v>708.5977221545814</v>
       </c>
       <c r="X28" t="n">
-        <v>1072.01027583948</v>
+        <v>510.4373654715239</v>
       </c>
       <c r="Y28" t="n">
-        <v>881.0468909109096</v>
+        <v>319.4739805429537</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.469310066961</v>
+        <v>2404.285245067568</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.50679312655</v>
+        <v>2035.322728127157</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.99217773326</v>
+        <v>1677.057029520406</v>
       </c>
       <c r="E29" t="n">
-        <v>1292.019860135623</v>
+        <v>1291.268776922162</v>
       </c>
       <c r="F29" t="n">
-        <v>881.0339553460158</v>
+        <v>880.2828721325543</v>
       </c>
       <c r="G29" t="n">
-        <v>489.6644352496133</v>
+        <v>488.9133520361518</v>
       </c>
       <c r="H29" t="n">
         <v>180.682272996056</v>
       </c>
       <c r="I29" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J29" t="n">
-        <v>359.4759795651812</v>
+        <v>359.4759795651806</v>
       </c>
       <c r="K29" t="n">
-        <v>875.4383195163117</v>
+        <v>875.438319516311</v>
       </c>
       <c r="L29" t="n">
-        <v>1567.811854278944</v>
+        <v>1567.811854278943</v>
       </c>
       <c r="M29" t="n">
-        <v>2354.817363273225</v>
+        <v>2354.817363273224</v>
       </c>
       <c r="N29" t="n">
         <v>3139.925446646148</v>
       </c>
       <c r="O29" t="n">
-        <v>3836.093108900406</v>
+        <v>3836.093108900405</v>
       </c>
       <c r="P29" t="n">
-        <v>4392.581719318776</v>
+        <v>4392.581719318775</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.259730444033</v>
+        <v>4733.259730444032</v>
       </c>
       <c r="R29" t="n">
-        <v>4788.812560440867</v>
+        <v>4788.812560440866</v>
       </c>
       <c r="S29" t="n">
-        <v>4653.159291851988</v>
+        <v>4653.159291851987</v>
       </c>
       <c r="T29" t="n">
-        <v>4442.309365102577</v>
+        <v>4442.309365102576</v>
       </c>
       <c r="U29" t="n">
         <v>4188.689847981052</v>
       </c>
       <c r="V29" t="n">
-        <v>3857.626960637482</v>
+        <v>3882.442895638088</v>
       </c>
       <c r="W29" t="n">
-        <v>3504.858305367367</v>
+        <v>3529.674240367974</v>
       </c>
       <c r="X29" t="n">
-        <v>3131.392547106288</v>
+        <v>3156.208482106894</v>
       </c>
       <c r="Y29" t="n">
-        <v>2766.069150131083</v>
+        <v>2790.88508513169</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2707041352264</v>
+        <v>358.2707041352263</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3120938236379</v>
+        <v>221.3120938236378</v>
       </c>
       <c r="H30" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I30" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J30" t="n">
         <v>134.3104982238677</v>
       </c>
       <c r="K30" t="n">
-        <v>540.1470733845282</v>
+        <v>278.3264887420754</v>
       </c>
       <c r="L30" t="n">
-        <v>1147.248828318941</v>
+        <v>766.3796067271139</v>
       </c>
       <c r="M30" t="n">
-        <v>1446.639149715366</v>
+        <v>1065.76992812354</v>
       </c>
       <c r="N30" t="n">
-        <v>1768.362086971198</v>
+        <v>1862.041815979489</v>
       </c>
       <c r="O30" t="n">
-        <v>2040.455925683989</v>
+        <v>2134.13565469228</v>
       </c>
       <c r="P30" t="n">
-        <v>2324.494996620014</v>
+        <v>2333.181882232575</v>
       </c>
       <c r="Q30" t="n">
-        <v>2615.609446910309</v>
+        <v>2624.296332522871</v>
       </c>
       <c r="R30" t="n">
         <v>2624.296332522871</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>679.6119382258746</v>
+        <v>488.2943621296304</v>
       </c>
       <c r="C31" t="n">
-        <v>679.6119382258746</v>
+        <v>344.174114202331</v>
       </c>
       <c r="D31" t="n">
-        <v>554.3112338141465</v>
+        <v>218.8734097906029</v>
       </c>
       <c r="E31" t="n">
-        <v>431.214075232361</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="F31" t="n">
-        <v>309.1400627350581</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="G31" t="n">
-        <v>309.1400627350581</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="H31" t="n">
-        <v>183.2999739079663</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="I31" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J31" t="n">
-        <v>130.6260213527076</v>
+        <v>130.6260213527075</v>
       </c>
       <c r="K31" t="n">
-        <v>302.0851554399304</v>
+        <v>302.0851554399303</v>
       </c>
       <c r="L31" t="n">
         <v>570.2184367556426</v>
@@ -6643,28 +6643,28 @@
         <v>1666.04090391191</v>
       </c>
       <c r="R31" t="n">
-        <v>1666.04090391191</v>
+        <v>1578.578029903862</v>
       </c>
       <c r="S31" t="n">
-        <v>1561.336511237645</v>
+        <v>1403.007415479422</v>
       </c>
       <c r="T31" t="n">
-        <v>1561.336511237645</v>
+        <v>1203.923551602304</v>
       </c>
       <c r="U31" t="n">
-        <v>1297.022347234782</v>
+        <v>939.6093875994414</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.022347234782</v>
+        <v>709.7408343941621</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.421112198429</v>
+        <v>684.2710062725529</v>
       </c>
       <c r="X31" t="n">
-        <v>1032.421112198429</v>
+        <v>684.2710062725529</v>
       </c>
       <c r="Y31" t="n">
-        <v>836.4444680555066</v>
+        <v>488.2943621296304</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2424.684300083673</v>
+        <v>2354.653375066353</v>
       </c>
       <c r="C32" t="n">
-        <v>2055.721783143262</v>
+        <v>1990.858821323906</v>
       </c>
       <c r="D32" t="n">
-        <v>1697.456084536511</v>
+        <v>1632.593122717156</v>
       </c>
       <c r="E32" t="n">
-        <v>1311.667831938267</v>
+        <v>1246.804870118911</v>
       </c>
       <c r="F32" t="n">
-        <v>900.6819271486595</v>
+        <v>835.8189653293039</v>
       </c>
       <c r="G32" t="n">
-        <v>489.6644352496133</v>
+        <v>419.6335102322939</v>
       </c>
       <c r="H32" t="n">
-        <v>180.682272996056</v>
+        <v>110.6513479787366</v>
       </c>
       <c r="I32" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J32" t="n">
-        <v>359.4759795651808</v>
+        <v>359.4759795651806</v>
       </c>
       <c r="K32" t="n">
-        <v>875.4383195163113</v>
+        <v>875.438319516311</v>
       </c>
       <c r="L32" t="n">
         <v>1567.811854278943</v>
       </c>
       <c r="M32" t="n">
-        <v>2354.817363273225</v>
+        <v>2354.817363273224</v>
       </c>
       <c r="N32" t="n">
-        <v>3139.925446646149</v>
+        <v>3139.925446646148</v>
       </c>
       <c r="O32" t="n">
-        <v>3836.093108900406</v>
+        <v>3836.093108900405</v>
       </c>
       <c r="P32" t="n">
-        <v>4392.581719318776</v>
+        <v>4392.581719318775</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.259730444033</v>
+        <v>4733.259730444032</v>
       </c>
       <c r="R32" t="n">
-        <v>4788.812560440867</v>
+        <v>4788.812560440866</v>
       </c>
       <c r="S32" t="n">
-        <v>4653.159291851988</v>
+        <v>4653.159291851987</v>
       </c>
       <c r="T32" t="n">
-        <v>4442.309365102577</v>
+        <v>4442.309365102576</v>
       </c>
       <c r="U32" t="n">
         <v>4188.689847981052</v>
       </c>
       <c r="V32" t="n">
-        <v>3857.626960637482</v>
+        <v>3857.626960637481</v>
       </c>
       <c r="W32" t="n">
-        <v>3504.858305367367</v>
+        <v>3504.858305367366</v>
       </c>
       <c r="X32" t="n">
-        <v>3201.423472123607</v>
+        <v>3131.392547106287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2811.284140147795</v>
+        <v>2741.253215130475</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2707041352264</v>
+        <v>358.2707041352263</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3120938236379</v>
+        <v>221.3120938236378</v>
       </c>
       <c r="H33" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I33" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J33" t="n">
-        <v>259.1406232108725</v>
+        <v>134.3104982238677</v>
       </c>
       <c r="K33" t="n">
-        <v>403.1566137290802</v>
+        <v>278.3264887420754</v>
       </c>
       <c r="L33" t="n">
-        <v>925.650416373694</v>
+        <v>885.4282436764879</v>
       </c>
       <c r="M33" t="n">
-        <v>1225.04073777012</v>
+        <v>1184.818565072914</v>
       </c>
       <c r="N33" t="n">
-        <v>1546.763675025951</v>
+        <v>1506.541502328745</v>
       </c>
       <c r="O33" t="n">
-        <v>1818.857513738742</v>
+        <v>2168.559037125498</v>
       </c>
       <c r="P33" t="n">
-        <v>2333.181882232575</v>
+        <v>2541.158397091066</v>
       </c>
       <c r="Q33" t="n">
         <v>2624.296332522871</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>650.6134133612852</v>
+        <v>650.6134133612853</v>
       </c>
       <c r="C34" t="n">
-        <v>551.7081554506977</v>
+        <v>551.7081554506979</v>
       </c>
       <c r="D34" t="n">
-        <v>471.6224410556814</v>
+        <v>471.6224410556815</v>
       </c>
       <c r="E34" t="n">
-        <v>393.7402724906077</v>
+        <v>393.7402724906078</v>
       </c>
       <c r="F34" t="n">
-        <v>316.8812500100167</v>
+        <v>316.8812500100169</v>
       </c>
       <c r="G34" t="n">
         <v>218.7100827016346</v>
@@ -6853,16 +6853,16 @@
         <v>138.0849838912545</v>
       </c>
       <c r="I34" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J34" t="n">
-        <v>174.9412330680866</v>
+        <v>174.9412330680868</v>
       </c>
       <c r="K34" t="n">
-        <v>390.7155788706888</v>
+        <v>390.7155788706889</v>
       </c>
       <c r="L34" t="n">
-        <v>703.1640719017802</v>
+        <v>703.1640719017803</v>
       </c>
       <c r="M34" t="n">
         <v>1039.25521267345</v>
@@ -6880,13 +6880,13 @@
         <v>2020.562597634944</v>
       </c>
       <c r="R34" t="n">
-        <v>1978.314713643608</v>
+        <v>1978.314713643609</v>
       </c>
       <c r="S34" t="n">
-        <v>1847.959089235879</v>
+        <v>1847.95908923588</v>
       </c>
       <c r="T34" t="n">
-        <v>1694.090215375473</v>
+        <v>1694.090215375474</v>
       </c>
       <c r="U34" t="n">
         <v>1474.991041389323</v>
@@ -6898,10 +6898,10 @@
         <v>1070.951233181114</v>
       </c>
       <c r="X34" t="n">
-        <v>912.9926073004161</v>
+        <v>912.9926073004162</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.2309531742055</v>
+        <v>762.2309531742056</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2429.852263281638</v>
+        <v>2359.821338264318</v>
       </c>
       <c r="C35" t="n">
-        <v>2060.889746341226</v>
+        <v>1990.858821323906</v>
       </c>
       <c r="D35" t="n">
-        <v>1702.624047734475</v>
+        <v>1632.593122717156</v>
       </c>
       <c r="E35" t="n">
-        <v>1316.835795136231</v>
+        <v>1246.804870118912</v>
       </c>
       <c r="F35" t="n">
-        <v>905.8498903466234</v>
+        <v>835.818965329304</v>
       </c>
       <c r="G35" t="n">
         <v>489.6644352496133</v>
@@ -6932,13 +6932,13 @@
         <v>180.682272996056</v>
       </c>
       <c r="I35" t="n">
-        <v>95.77625120881733</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="J35" t="n">
-        <v>359.4759795651806</v>
+        <v>359.4759795651808</v>
       </c>
       <c r="K35" t="n">
-        <v>875.438319516311</v>
+        <v>875.4383195163109</v>
       </c>
       <c r="L35" t="n">
         <v>1567.811854278943</v>
@@ -6956,31 +6956,31 @@
         <v>4392.581719318775</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.259730444032</v>
+        <v>4733.259730444033</v>
       </c>
       <c r="R35" t="n">
-        <v>4788.812560440866</v>
+        <v>4788.812560440867</v>
       </c>
       <c r="S35" t="n">
-        <v>4653.159291851987</v>
+        <v>4653.159291851988</v>
       </c>
       <c r="T35" t="n">
-        <v>4442.309365102576</v>
+        <v>4447.477328300541</v>
       </c>
       <c r="U35" t="n">
-        <v>4188.689847981052</v>
+        <v>4193.857811179017</v>
       </c>
       <c r="V35" t="n">
-        <v>3857.626960637481</v>
+        <v>3862.794923835446</v>
       </c>
       <c r="W35" t="n">
-        <v>3574.889230384686</v>
+        <v>3510.026268565332</v>
       </c>
       <c r="X35" t="n">
-        <v>3201.423472123606</v>
+        <v>3136.560510304252</v>
       </c>
       <c r="Y35" t="n">
-        <v>2811.284140147794</v>
+        <v>2746.42117832844</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2707041352263</v>
+        <v>358.2707041352264</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3120938236378</v>
+        <v>221.3120938236379</v>
       </c>
       <c r="H36" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I36" t="n">
-        <v>95.77625120881733</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="J36" t="n">
-        <v>259.1406232108725</v>
+        <v>134.3104982238677</v>
       </c>
       <c r="K36" t="n">
-        <v>403.1566137290802</v>
+        <v>278.3264887420754</v>
       </c>
       <c r="L36" t="n">
-        <v>766.3796067271139</v>
+        <v>659.0779806320668</v>
       </c>
       <c r="M36" t="n">
-        <v>1065.76992812354</v>
+        <v>958.4683020284924</v>
       </c>
       <c r="N36" t="n">
-        <v>1862.041815979489</v>
+        <v>1754.740189884442</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.13565469228</v>
+        <v>2026.834028597233</v>
       </c>
       <c r="P36" t="n">
-        <v>2333.181882232575</v>
+        <v>2541.158397091066</v>
       </c>
       <c r="Q36" t="n">
         <v>2624.296332522871</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>650.6134133612851</v>
+        <v>650.6134133612853</v>
       </c>
       <c r="C37" t="n">
-        <v>551.7081554506976</v>
+        <v>551.7081554506979</v>
       </c>
       <c r="D37" t="n">
-        <v>471.6224410556813</v>
+        <v>471.6224410556816</v>
       </c>
       <c r="E37" t="n">
-        <v>393.7402724906075</v>
+        <v>393.740272490608</v>
       </c>
       <c r="F37" t="n">
-        <v>316.8812500100166</v>
+        <v>316.8812500100171</v>
       </c>
       <c r="G37" t="n">
-        <v>218.7100827016346</v>
+        <v>218.7100827016349</v>
       </c>
       <c r="H37" t="n">
         <v>138.0849838912545</v>
       </c>
       <c r="I37" t="n">
-        <v>95.77625120881733</v>
+        <v>95.77625120881734</v>
       </c>
       <c r="J37" t="n">
-        <v>174.9412330680866</v>
+        <v>174.9412330680868</v>
       </c>
       <c r="K37" t="n">
-        <v>390.7155788706887</v>
+        <v>390.7155788706889</v>
       </c>
       <c r="L37" t="n">
-        <v>703.1640719017801</v>
+        <v>703.1640719017803</v>
       </c>
       <c r="M37" t="n">
         <v>1039.25521267345</v>
@@ -7117,7 +7117,7 @@
         <v>2020.562597634944</v>
       </c>
       <c r="R37" t="n">
-        <v>1978.314713643608</v>
+        <v>1978.314713643609</v>
       </c>
       <c r="S37" t="n">
         <v>1847.95908923588</v>
@@ -7129,16 +7129,16 @@
         <v>1474.991041389323</v>
       </c>
       <c r="V37" t="n">
-        <v>1290.337478200755</v>
+        <v>1290.337478200756</v>
       </c>
       <c r="W37" t="n">
-        <v>1070.951233181114</v>
+        <v>1070.951233181115</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9926073004161</v>
+        <v>912.9926073004165</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.2309531742054</v>
+        <v>762.2309531742056</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>180.682272996056</v>
       </c>
       <c r="I38" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J38" t="n">
-        <v>359.4759795651805</v>
+        <v>359.4759795651806</v>
       </c>
       <c r="K38" t="n">
-        <v>875.4383195163109</v>
+        <v>875.438319516311</v>
       </c>
       <c r="L38" t="n">
         <v>1567.811854278943</v>
@@ -7196,25 +7196,25 @@
         <v>4733.259730444032</v>
       </c>
       <c r="R38" t="n">
-        <v>4788.812560440867</v>
+        <v>4788.812560440866</v>
       </c>
       <c r="S38" t="n">
-        <v>4653.159291851988</v>
+        <v>4653.159291851987</v>
       </c>
       <c r="T38" t="n">
-        <v>4447.477328300541</v>
+        <v>4442.309365102576</v>
       </c>
       <c r="U38" t="n">
-        <v>4193.857811179017</v>
+        <v>4188.689847981052</v>
       </c>
       <c r="V38" t="n">
-        <v>3862.794923835446</v>
+        <v>3857.626960637481</v>
       </c>
       <c r="W38" t="n">
-        <v>3510.026268565332</v>
+        <v>3504.858305367366</v>
       </c>
       <c r="X38" t="n">
-        <v>3206.591435321571</v>
+        <v>3136.560510304252</v>
       </c>
       <c r="Y38" t="n">
         <v>2816.452103345759</v>
@@ -7239,31 +7239,31 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2707041352264</v>
+        <v>358.2707041352263</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3120938236379</v>
+        <v>221.3120938236378</v>
       </c>
       <c r="H39" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I39" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J39" t="n">
         <v>134.3104982238677</v>
       </c>
       <c r="K39" t="n">
-        <v>526.5251762977722</v>
+        <v>278.3264887420754</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.626931232185</v>
+        <v>743.7032351482226</v>
       </c>
       <c r="M39" t="n">
-        <v>1433.01725262861</v>
+        <v>1043.093556544648</v>
       </c>
       <c r="N39" t="n">
-        <v>1754.740189884442</v>
+        <v>1364.81649380048</v>
       </c>
       <c r="O39" t="n">
         <v>2026.834028597233</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>650.6134133612851</v>
+        <v>650.6134133612859</v>
       </c>
       <c r="C40" t="n">
-        <v>551.7081554506976</v>
+        <v>551.7081554506984</v>
       </c>
       <c r="D40" t="n">
-        <v>471.6224410556813</v>
+        <v>471.6224410556821</v>
       </c>
       <c r="E40" t="n">
-        <v>393.7402724906077</v>
+        <v>393.7402724906084</v>
       </c>
       <c r="F40" t="n">
-        <v>316.8812500100167</v>
+        <v>316.8812500100174</v>
       </c>
       <c r="G40" t="n">
         <v>218.7100827016346</v>
@@ -7327,7 +7327,7 @@
         <v>138.0849838912545</v>
       </c>
       <c r="I40" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J40" t="n">
         <v>174.9412330680868</v>
@@ -7366,16 +7366,16 @@
         <v>1474.991041389323</v>
       </c>
       <c r="V40" t="n">
-        <v>1290.337478200755</v>
+        <v>1290.337478200756</v>
       </c>
       <c r="W40" t="n">
-        <v>1070.951233181114</v>
+        <v>1070.951233181115</v>
       </c>
       <c r="X40" t="n">
-        <v>912.992607300416</v>
+        <v>912.9926073004168</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.2309531742054</v>
+        <v>762.2309531742062</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2424.684300083673</v>
+        <v>2424.684300083672</v>
       </c>
       <c r="C41" t="n">
-        <v>2055.721783143262</v>
+        <v>2055.721783143261</v>
       </c>
       <c r="D41" t="n">
-        <v>1697.456084536511</v>
+        <v>1697.45608453651</v>
       </c>
       <c r="E41" t="n">
-        <v>1311.667831938267</v>
+        <v>1311.667831938266</v>
       </c>
       <c r="F41" t="n">
-        <v>900.6819271486595</v>
+        <v>900.6819271486586</v>
       </c>
       <c r="G41" t="n">
-        <v>489.6644352496133</v>
+        <v>484.4964720516485</v>
       </c>
       <c r="H41" t="n">
         <v>180.682272996056</v>
       </c>
       <c r="I41" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J41" t="n">
-        <v>359.4759795651812</v>
+        <v>359.4759795651806</v>
       </c>
       <c r="K41" t="n">
-        <v>875.4383195163117</v>
+        <v>875.438319516311</v>
       </c>
       <c r="L41" t="n">
-        <v>1567.811854278944</v>
+        <v>1567.811854278943</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.817363273225</v>
+        <v>2354.817363273224</v>
       </c>
       <c r="N41" t="n">
         <v>3139.925446646148</v>
       </c>
       <c r="O41" t="n">
-        <v>3836.093108900406</v>
+        <v>3836.093108900405</v>
       </c>
       <c r="P41" t="n">
-        <v>4392.581719318776</v>
+        <v>4392.581719318775</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.259730444033</v>
+        <v>4733.259730444032</v>
       </c>
       <c r="R41" t="n">
-        <v>4788.812560440867</v>
+        <v>4788.812560440866</v>
       </c>
       <c r="S41" t="n">
-        <v>4653.159291851988</v>
+        <v>4653.159291851987</v>
       </c>
       <c r="T41" t="n">
-        <v>4442.309365102577</v>
+        <v>4512.340290119895</v>
       </c>
       <c r="U41" t="n">
-        <v>4188.689847981052</v>
+        <v>4258.720772998371</v>
       </c>
       <c r="V41" t="n">
-        <v>3927.657885654801</v>
+        <v>3927.6578856548</v>
       </c>
       <c r="W41" t="n">
-        <v>3574.889230384687</v>
+        <v>3574.889230384686</v>
       </c>
       <c r="X41" t="n">
-        <v>3201.423472123607</v>
+        <v>3201.423472123606</v>
       </c>
       <c r="Y41" t="n">
-        <v>2811.284140147795</v>
+        <v>2811.284140147794</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2707041352264</v>
+        <v>358.2707041352263</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3120938236379</v>
+        <v>221.3120938236378</v>
       </c>
       <c r="H42" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I42" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J42" t="n">
-        <v>134.3104982238677</v>
+        <v>259.1406232108725</v>
       </c>
       <c r="K42" t="n">
-        <v>540.1470733845282</v>
+        <v>403.1566137290802</v>
       </c>
       <c r="L42" t="n">
-        <v>780.1168864685161</v>
+        <v>643.1264268130681</v>
       </c>
       <c r="M42" t="n">
-        <v>1079.507207864942</v>
+        <v>1043.093556544648</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.230145120773</v>
+        <v>1364.81649380048</v>
       </c>
       <c r="O42" t="n">
-        <v>2063.247679917527</v>
+        <v>2026.834028597233</v>
       </c>
       <c r="P42" t="n">
-        <v>2333.181882232575</v>
+        <v>2541.158397091066</v>
       </c>
       <c r="Q42" t="n">
         <v>2624.296332522871</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>650.6134133612852</v>
+        <v>650.6134133612857</v>
       </c>
       <c r="C43" t="n">
-        <v>551.7081554506976</v>
+        <v>551.7081554506981</v>
       </c>
       <c r="D43" t="n">
-        <v>471.6224410556813</v>
+        <v>471.6224410556817</v>
       </c>
       <c r="E43" t="n">
-        <v>393.7402724906075</v>
+        <v>393.7402724906079</v>
       </c>
       <c r="F43" t="n">
-        <v>316.8812500100165</v>
+        <v>316.8812500100169</v>
       </c>
       <c r="G43" t="n">
-        <v>218.7100827016343</v>
+        <v>218.7100827016347</v>
       </c>
       <c r="H43" t="n">
         <v>138.0849838912545</v>
       </c>
       <c r="I43" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J43" t="n">
-        <v>174.9412330680868</v>
+        <v>174.9412330680867</v>
       </c>
       <c r="K43" t="n">
-        <v>390.715578870689</v>
+        <v>390.7155788706887</v>
       </c>
       <c r="L43" t="n">
-        <v>703.1640719017804</v>
+        <v>703.1640719017801</v>
       </c>
       <c r="M43" t="n">
         <v>1039.25521267345</v>
@@ -7585,34 +7585,34 @@
         <v>1673.225193895993</v>
       </c>
       <c r="P43" t="n">
-        <v>1915.288912199027</v>
+        <v>1915.288912199026</v>
       </c>
       <c r="Q43" t="n">
-        <v>2020.562597634944</v>
+        <v>2020.562597634943</v>
       </c>
       <c r="R43" t="n">
         <v>1978.314713643608</v>
       </c>
       <c r="S43" t="n">
-        <v>1847.95908923588</v>
+        <v>1847.959089235879</v>
       </c>
       <c r="T43" t="n">
-        <v>1694.090215375474</v>
+        <v>1694.090215375473</v>
       </c>
       <c r="U43" t="n">
         <v>1474.991041389323</v>
       </c>
       <c r="V43" t="n">
-        <v>1290.337478200755</v>
+        <v>1290.337478200756</v>
       </c>
       <c r="W43" t="n">
-        <v>1070.951233181114</v>
+        <v>1070.951233181115</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9926073004162</v>
+        <v>912.9926073004167</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.2309531742055</v>
+        <v>762.230953174206</v>
       </c>
     </row>
     <row r="44">
@@ -7631,67 +7631,67 @@
         <v>1632.593122717156</v>
       </c>
       <c r="E44" t="n">
-        <v>1246.804870118912</v>
+        <v>1246.804870118911</v>
       </c>
       <c r="F44" t="n">
-        <v>835.818965329304</v>
+        <v>835.8189653293039</v>
       </c>
       <c r="G44" t="n">
         <v>419.6335102322939</v>
       </c>
       <c r="H44" t="n">
-        <v>180.682272996056</v>
+        <v>110.6513479787366</v>
       </c>
       <c r="I44" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J44" t="n">
-        <v>359.4759795651805</v>
+        <v>359.4759795651806</v>
       </c>
       <c r="K44" t="n">
-        <v>875.4383195163109</v>
+        <v>875.438319516311</v>
       </c>
       <c r="L44" t="n">
         <v>1567.811854278943</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.817363273225</v>
+        <v>2354.817363273224</v>
       </c>
       <c r="N44" t="n">
-        <v>3139.925446646149</v>
+        <v>3139.925446646148</v>
       </c>
       <c r="O44" t="n">
-        <v>3836.093108900406</v>
+        <v>3836.093108900405</v>
       </c>
       <c r="P44" t="n">
-        <v>4392.581719318776</v>
+        <v>4392.581719318775</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.259730444033</v>
+        <v>4733.259730444032</v>
       </c>
       <c r="R44" t="n">
-        <v>4788.812560440867</v>
+        <v>4788.812560440866</v>
       </c>
       <c r="S44" t="n">
-        <v>4653.159291851988</v>
+        <v>4653.159291851987</v>
       </c>
       <c r="T44" t="n">
-        <v>4442.309365102577</v>
+        <v>4442.309365102576</v>
       </c>
       <c r="U44" t="n">
         <v>4188.689847981052</v>
       </c>
       <c r="V44" t="n">
-        <v>3857.626960637482</v>
+        <v>3857.626960637481</v>
       </c>
       <c r="W44" t="n">
-        <v>3504.858305367367</v>
+        <v>3504.858305367366</v>
       </c>
       <c r="X44" t="n">
-        <v>3131.392547106288</v>
+        <v>3131.392547106287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2746.42117832844</v>
+        <v>2741.253215130475</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8052621083414</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2707041352264</v>
+        <v>358.2707041352263</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3120938236379</v>
+        <v>221.3120938236378</v>
       </c>
       <c r="H45" t="n">
         <v>125.0588251740362</v>
       </c>
       <c r="I45" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J45" t="n">
-        <v>134.3104982238677</v>
+        <v>259.1406232108725</v>
       </c>
       <c r="K45" t="n">
-        <v>540.1470733845282</v>
+        <v>403.1566137290802</v>
       </c>
       <c r="L45" t="n">
-        <v>780.1168864685161</v>
+        <v>643.1264268130681</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.555220977442</v>
+        <v>942.5167482094937</v>
       </c>
       <c r="N45" t="n">
-        <v>2070.01833083798</v>
+        <v>1738.788636065443</v>
       </c>
       <c r="O45" t="n">
-        <v>2342.112169550771</v>
+        <v>2010.882474778234</v>
       </c>
       <c r="P45" t="n">
-        <v>2541.158397091066</v>
+        <v>2525.206843272067</v>
       </c>
       <c r="Q45" t="n">
         <v>2624.296332522871</v>
@@ -7801,7 +7801,7 @@
         <v>138.0849838912545</v>
       </c>
       <c r="I46" t="n">
-        <v>95.77625120881734</v>
+        <v>95.77625120881733</v>
       </c>
       <c r="J46" t="n">
         <v>174.9412330680868</v>
@@ -7810,7 +7810,7 @@
         <v>390.7155788706889</v>
       </c>
       <c r="L46" t="n">
-        <v>703.1640719017803</v>
+        <v>703.1640719017806</v>
       </c>
       <c r="M46" t="n">
         <v>1039.25521267345</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>204.9899895268728</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
         <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>241.6948162797748</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>197.6593378372518</v>
       </c>
       <c r="N6" t="n">
-        <v>263.6455160524019</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>330.600666928433</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>89.82613930213813</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>36.74703787944041</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>281.6813026598426</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>233.0001905694334</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>36.74703787944041</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>129.3608401910123</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>169.8376093608236</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>20.91253022037694</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>31.85382533802419</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>36.74703787944041</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>411.4688025733641</v>
       </c>
       <c r="O24" t="n">
-        <v>147.0035655607858</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>36.74703787944041</v>
+        <v>36.7470378794404</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>327.2946200046916</v>
       </c>
       <c r="O27" t="n">
-        <v>20.91253022037705</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>36.74703787944041</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>250.5891968697481</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>85.85135696538339</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>36.74703787944041</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>285.3777672329555</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>175.3061943689621</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>36.74703787944041</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>124.4981615293393</v>
+        <v>142.20371596566</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>36.74703787944041</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729831</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>250.7057450057544</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>227.6837710324841</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>101.5927356920752</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>71.60401492399365</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>36.74703787944041</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>209.8385581865722</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>16.11268062525126</v>
       </c>
       <c r="R45" t="n">
         <v>36.74703787944041</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>74.44689933313082</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>74.44689933313083</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.5200714024446</v>
       </c>
       <c r="H13" t="n">
-        <v>46.18783493770119</v>
+        <v>149.1494635894225</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>111.216261122759</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6608008889482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>212.7526079094382</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>174.8688535597286</v>
+        <v>120.5451345857027</v>
       </c>
       <c r="C16" t="n">
-        <v>162.2836944764192</v>
+        <v>162.2836944764191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>143.6523463960036</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.4708360243604</v>
       </c>
       <c r="F16" t="n">
-        <v>140.4579214007226</v>
+        <v>140.4579214007225</v>
       </c>
       <c r="G16" t="n">
         <v>161.5569447802359</v>
       </c>
       <c r="H16" t="n">
-        <v>144.1863369672139</v>
+        <v>144.1863369672138</v>
       </c>
       <c r="I16" t="n">
         <v>106.2531345005503</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.1928942963594</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>193.4195573085891</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>247.1745167016193</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>98.17858121518867</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>220.7465287668284</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.8688535597286</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>162.2836944764192</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>143.6523463960037</v>
+        <v>143.6523463960036</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>141.4708360243604</v>
       </c>
       <c r="F19" t="n">
-        <v>140.4579214007226</v>
+        <v>140.4579214007225</v>
       </c>
       <c r="G19" t="n">
         <v>161.5569447802359</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.1863369672138</v>
       </c>
       <c r="I19" t="n">
         <v>106.2531345005503</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>104.9385902998927</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>156.4339653444653</v>
       </c>
       <c r="X19" t="n">
-        <v>220.7465287668285</v>
+        <v>220.7465287668284</v>
       </c>
       <c r="Y19" t="n">
         <v>213.6215267298861</v>
@@ -24127,25 +24127,25 @@
         <v>174.8688535597286</v>
       </c>
       <c r="C22" t="n">
-        <v>162.2836944764191</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>143.6523463960036</v>
+        <v>143.6523463960037</v>
       </c>
       <c r="E22" t="n">
-        <v>141.4708360243604</v>
+        <v>141.4708360243605</v>
       </c>
       <c r="F22" t="n">
-        <v>140.4579214007225</v>
+        <v>140.4579214007226</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>161.5569447802359</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.1863369672139</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>106.2531345005503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>29.48286820350404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>247.1745167016193</v>
+        <v>87.75800608109614</v>
       </c>
       <c r="W22" t="n">
-        <v>281.5598717143823</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>220.7465287668285</v>
       </c>
       <c r="Y22" t="n">
         <v>213.6215267298861</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>127.6701366226453</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>162.2836944764192</v>
       </c>
       <c r="D25" t="n">
-        <v>143.6523463960036</v>
+        <v>143.6523463960037</v>
       </c>
       <c r="E25" t="n">
-        <v>141.4708360243604</v>
+        <v>141.4708360243605</v>
       </c>
       <c r="F25" t="n">
-        <v>140.4579214007225</v>
+        <v>140.4579214007226</v>
       </c>
       <c r="G25" t="n">
         <v>161.5569447802359</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.1863369672139</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>106.2531345005503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>106.1928942963594</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>98.88557716305652</v>
+        <v>193.4195573085891</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>247.1745167016193</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>281.5598717143823</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>66.55624469414977</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>119.0845707454021</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>116.903060373759</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.890145750121</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.9891691296344</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>119.6185613166123</v>
       </c>
       <c r="I28" t="n">
-        <v>81.68535884994876</v>
+        <v>81.68535884994878</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.62511864575788</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8517816579876</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>192.129898616138</v>
       </c>
       <c r="U28" t="n">
-        <v>256.7078957406253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>222.6067410510178</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.2955427850259</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>155.2642045313358</v>
       </c>
       <c r="C31" t="n">
-        <v>142.6790454480263</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>120.8532723723297</v>
       </c>
       <c r="G31" t="n">
-        <v>141.952295751843</v>
+        <v>141.9522957518431</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>124.581687938821</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.64848547215749</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>86.58824526796656</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>70.15755953267308</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>197.0930252383466</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.5698676732264</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>236.7400928455965</v>
       </c>
       <c r="X31" t="n">
         <v>201.1418797384356</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1352014.884346984</v>
+        <v>1352014.884346983</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1367135.83933425</v>
+        <v>1367135.839334251</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1367135.83933425</v>
+        <v>1367135.839334251</v>
       </c>
     </row>
     <row r="8">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="D2" t="n">
-        <v>20526.04424660707</v>
-      </c>
       <c r="E2" t="n">
-        <v>19386.15651030532</v>
+        <v>19386.15651030533</v>
       </c>
       <c r="F2" t="n">
         <v>19605.3007854831</v>
@@ -26329,7 +26329,7 @@
         <v>19605.30078548309</v>
       </c>
       <c r="H2" t="n">
-        <v>19605.30078548309</v>
+        <v>19605.3007854831</v>
       </c>
       <c r="I2" t="n">
         <v>19605.30078548312</v>
@@ -26341,16 +26341,16 @@
         <v>19885.73509541679</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660706</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660707</v>
@@ -26369,10 +26369,10 @@
         <v>15106.6875843894</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>507974.8147778229</v>
+        <v>507974.8147778228</v>
       </c>
       <c r="F3" t="n">
         <v>3970.501297766941</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.339550858072471e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88529.9192517311</v>
+        <v>88529.91925173109</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>3323.773824475267</v>
       </c>
       <c r="L3" t="n">
-        <v>136573.5840325161</v>
+        <v>136573.5840325162</v>
       </c>
       <c r="M3" t="n">
-        <v>130312.7258085001</v>
+        <v>130312.7258085002</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19654.22052048117</v>
+        <v>19654.22052048119</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15148.55703066054</v>
       </c>
       <c r="F4" t="n">
-        <v>20164.0234151915</v>
+        <v>20164.02341519155</v>
       </c>
       <c r="G4" t="n">
-        <v>20164.02341519151</v>
+        <v>20164.02341519155</v>
       </c>
       <c r="H4" t="n">
-        <v>20164.02341519155</v>
+        <v>20164.02341519152</v>
       </c>
       <c r="I4" t="n">
-        <v>20164.02341519159</v>
+        <v>20164.02341519153</v>
       </c>
       <c r="J4" t="n">
-        <v>28248.04595229289</v>
+        <v>28248.0459522929</v>
       </c>
       <c r="K4" t="n">
-        <v>26614.92995355411</v>
+        <v>26614.92995355412</v>
       </c>
       <c r="L4" t="n">
-        <v>41344.13513163674</v>
+        <v>41344.13513163679</v>
       </c>
       <c r="M4" t="n">
+        <v>41344.13513163675</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41344.13513163679</v>
+      </c>
+      <c r="O4" t="n">
         <v>41344.13513163677</v>
       </c>
-      <c r="N4" t="n">
-        <v>41344.13513163676</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41344.13513163672</v>
-      </c>
       <c r="P4" t="n">
-        <v>41344.13513163675</v>
+        <v>41344.13513163678</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90571.89091786175</v>
+        <v>90571.89091786173</v>
       </c>
       <c r="F5" t="n">
         <v>90989.13600986419</v>
@@ -26485,7 +26485,7 @@
         <v>90989.13600986419</v>
       </c>
       <c r="H5" t="n">
-        <v>90989.13600986419</v>
+        <v>90989.1360098642</v>
       </c>
       <c r="I5" t="n">
         <v>90989.13600986419</v>
@@ -26494,22 +26494,22 @@
         <v>93054.52434103462</v>
       </c>
       <c r="K5" t="n">
-        <v>92637.27924903216</v>
+        <v>92637.27924903214</v>
       </c>
       <c r="L5" t="n">
+        <v>96400.44645478993</v>
+      </c>
+      <c r="M5" t="n">
         <v>96400.44645478996</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>96400.44645478993</v>
       </c>
-      <c r="N5" t="n">
-        <v>96400.44645478996</v>
-      </c>
       <c r="O5" t="n">
-        <v>96400.44645478996</v>
+        <v>96400.44645478993</v>
       </c>
       <c r="P5" t="n">
-        <v>96400.44645478996</v>
+        <v>96400.44645478993</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26528,40 @@
         <v>-636291.6142217129</v>
       </c>
       <c r="E6" t="n">
-        <v>-594309.10621604</v>
+        <v>-594423.09498967</v>
       </c>
       <c r="F6" t="n">
-        <v>-95518.35993733954</v>
+        <v>-95610.43428345196</v>
       </c>
       <c r="G6" t="n">
-        <v>-91547.8586395726</v>
+        <v>-91639.93298568504</v>
       </c>
       <c r="H6" t="n">
-        <v>-91547.85863957269</v>
+        <v>-91639.93298568501</v>
       </c>
       <c r="I6" t="n">
-        <v>-91547.85863957266</v>
+        <v>-91639.93298568499</v>
       </c>
       <c r="J6" t="n">
-        <v>-189875.759504137</v>
+        <v>-189932.6909247055</v>
       </c>
       <c r="K6" t="n">
-        <v>-102690.2479316448</v>
+        <v>-102754.2788467638</v>
       </c>
       <c r="L6" t="n">
-        <v>-253792.1213723357</v>
+        <v>-253792.1213723358</v>
       </c>
       <c r="M6" t="n">
         <v>-247531.2631483198</v>
       </c>
       <c r="N6" t="n">
-        <v>-117218.5373398197</v>
+        <v>-117218.5373398196</v>
       </c>
       <c r="O6" t="n">
         <v>-136872.7578603008</v>
       </c>
       <c r="P6" t="n">
-        <v>-117218.5373398196</v>
+        <v>-117218.5373398197</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>4.963126622208721</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.963126622208721</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.963126622208677</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.963126622208679</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.963126622208721</v>
-      </c>
       <c r="I2" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="J2" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="K2" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="L2" t="n">
         <v>69.33061576714623</v>
       </c>
       <c r="M2" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="N2" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="O2" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="P2" t="n">
         <v>69.33061576714623</v>
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>815.6853210624113</v>
+        <v>815.685321062411</v>
       </c>
       <c r="F3" t="n">
         <v>815.685321062411</v>
@@ -26753,10 +26753,10 @@
         <v>815.685321062411</v>
       </c>
       <c r="H3" t="n">
-        <v>815.685321062411</v>
+        <v>815.6853210624113</v>
       </c>
       <c r="I3" t="n">
-        <v>815.685321062411</v>
+        <v>815.6853210624112</v>
       </c>
       <c r="J3" t="n">
         <v>815.685321062411</v>
@@ -26923,31 +26923,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.174438572590589e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.5677756506015</v>
+        <v>24.56777565060154</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.76284011654465</v>
+        <v>44.76284011654472</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.56777565060145</v>
+        <v>24.56777565060148</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
-        <v>437.9416568453246</v>
+        <v>437.9416568453244</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>12.91447975068877</v>
       </c>
       <c r="L4" t="n">
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>522.9158673556609</v>
+        <v>522.9158673556614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.174438572590589e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.5677756506015</v>
+        <v>24.56777565060154</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>364.3821843914958</v>
       </c>
       <c r="F2" t="n">
         <v>143.6340117900448</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>132.5876066166165</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>156.6304231929848</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>75.84859941078642</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>142.9828744134483</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
         <v>90.42516245839145</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>195.8029775769311</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8510996945768738</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27743,7 +27743,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>155.1483249549204</v>
       </c>
       <c r="W6" t="n">
-        <v>148.7750375536098</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.03213627898361</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>163.7172670085952</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>15.66988740388035</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="C14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="D14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="E14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="F14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="G14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="H14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="I14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="T14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="U14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="V14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="W14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="X14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="C16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="D16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="E16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="F16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="G16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="H16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="I16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="J16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="K16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="L16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="M16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="N16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="O16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="P16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="R16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="S16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="T16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="U16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="V16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="W16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="X16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.963126622208677</v>
+        <v>4.963126622208721</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="C17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="D17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="E17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="F17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="G17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="H17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="I17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="T17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="U17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="V17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="W17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="X17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="C19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="D19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="E19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="F19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="G19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="H19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="I19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="J19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="K19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="L19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="M19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="N19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="O19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="P19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="R19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="S19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="T19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="U19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="V19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="W19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="X19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.963126622208679</v>
+        <v>4.963126622208721</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="C20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="D20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="E20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="F20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="G20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="H20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="I20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="T20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622209131</v>
       </c>
       <c r="U20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="V20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="W20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="X20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="C22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="D22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="E22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="F22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="G22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="H22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="I22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="J22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="K22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="L22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="M22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="N22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="O22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="P22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="R22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="S22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="T22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="U22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="V22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="W22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="X22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.963126622208721</v>
+        <v>4.963126622208677</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="C23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="D23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="E23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="F23" t="n">
-        <v>4.963126622209472</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="G23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="H23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="I23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="T23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="U23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="V23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="W23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="X23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622209245</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="C25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="D25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="E25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="F25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="G25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="H25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="I25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="J25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="K25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="L25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="M25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="N25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="O25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="P25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="R25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="S25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="T25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="U25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="V25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="W25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="X25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.963126622208733</v>
+        <v>4.963126622208677</v>
       </c>
     </row>
     <row r="26">
@@ -29272,13 +29272,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>29.53090227281023</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>29.53090227281023</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29332,13 +29332,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>15.38509478751007</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>15.38509478751024</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="C28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="D28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="E28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="F28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="G28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="H28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="I28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="J28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="K28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="L28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="M28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="N28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="O28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="P28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="R28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="S28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="T28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="U28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="V28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="W28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="X28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.53090227281023</v>
+        <v>29.53090227281022</v>
       </c>
     </row>
     <row r="29">
@@ -29515,19 +29515,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7435723813259756</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>24.56777565060158</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.7435723813268851</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="C31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="D31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="E31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="F31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="G31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="H31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="I31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="J31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="K31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="L31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="M31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="N31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="O31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="P31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="R31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="S31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="T31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="U31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="V31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="W31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="X31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.56777565060158</v>
+        <v>24.5677756506015</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>5.116283565985213</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.116283565984247</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>69.33061576714623</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.11628356598527</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.116283565984418</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>69.3306157671462</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="C37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="D37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="E37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="F37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="G37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="H37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="I37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="J37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="K37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="L37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="M37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="N37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="O37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="P37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="R37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="S37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="T37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="U37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="V37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="W37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="X37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714624</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.116283565984418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30286,10 +30286,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>69.33061576714624</v>
+        <v>5.116283565985441</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>69.33061576714623</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="C40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="D40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="E40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="F40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="G40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="H40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="I40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="J40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="K40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="L40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="M40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="N40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="O40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="P40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="R40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="S40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="T40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="U40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="V40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="W40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="X40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.33061576714624</v>
+        <v>69.33061576714623</v>
       </c>
     </row>
     <row r="41">
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.116283565984247</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.116283565985157</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,13 +30511,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>69.3306157671462</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="C43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="D43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="E43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="F43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="G43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="H43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="I43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="J43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="K43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="L43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="M43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="N43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="O43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="P43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="R43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="S43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="T43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="U43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="V43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="W43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="X43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.3306157671462</v>
+        <v>69.33061576714617</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>5.11628356598527</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,11 +30712,11 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>69.33061576714623</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.116283565984475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.279136969095118</v>
+        <v>3.279136969095117</v>
       </c>
       <c r="H11" t="n">
-        <v>33.58246148474539</v>
+        <v>33.58246148474538</v>
       </c>
       <c r="I11" t="n">
-        <v>126.4189280010397</v>
+        <v>126.4189280010396</v>
       </c>
       <c r="J11" t="n">
         <v>278.312651330737</v>
       </c>
       <c r="K11" t="n">
-        <v>417.1185192325335</v>
+        <v>417.1185192325333</v>
       </c>
       <c r="L11" t="n">
-        <v>517.4724072504783</v>
+        <v>517.4724072504781</v>
       </c>
       <c r="M11" t="n">
-        <v>575.7877593246236</v>
+        <v>575.7877593246234</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1046072380651</v>
+        <v>585.104607238065</v>
       </c>
       <c r="O11" t="n">
-        <v>552.4976890016255</v>
+        <v>552.4976890016254</v>
       </c>
       <c r="P11" t="n">
-        <v>471.5439950770897</v>
+        <v>471.5439950770896</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.1099023713707</v>
+        <v>354.1099023713706</v>
       </c>
       <c r="R11" t="n">
-        <v>205.9830876349214</v>
+        <v>205.9830876349213</v>
       </c>
       <c r="S11" t="n">
-        <v>74.72333368325508</v>
+        <v>74.72333368325506</v>
       </c>
       <c r="T11" t="n">
-        <v>14.35442208221389</v>
+        <v>14.35442208221388</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2623309575276094</v>
+        <v>0.2623309575276093</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.754492954738017</v>
+        <v>1.754492954738016</v>
       </c>
       <c r="H12" t="n">
-        <v>16.94470827339085</v>
+        <v>16.94470827339084</v>
       </c>
       <c r="I12" t="n">
-        <v>60.40688462584839</v>
+        <v>60.40688462584838</v>
       </c>
       <c r="J12" t="n">
-        <v>165.761108500051</v>
+        <v>165.7611085000509</v>
       </c>
       <c r="K12" t="n">
-        <v>283.3121364674981</v>
+        <v>283.312136467498</v>
       </c>
       <c r="L12" t="n">
-        <v>380.9481303697611</v>
+        <v>380.948130369761</v>
       </c>
       <c r="M12" t="n">
-        <v>444.5484999790141</v>
+        <v>444.548499979014</v>
       </c>
       <c r="N12" t="n">
-        <v>456.3143759781125</v>
+        <v>456.3143759781124</v>
       </c>
       <c r="O12" t="n">
-        <v>417.4385057704965</v>
+        <v>417.4385057704964</v>
       </c>
       <c r="P12" t="n">
-        <v>335.031202909578</v>
+        <v>335.0312029095779</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.9594866434002</v>
+        <v>223.9594866434001</v>
       </c>
       <c r="R12" t="n">
-        <v>108.9324660845236</v>
+        <v>108.9324660845235</v>
       </c>
       <c r="S12" t="n">
         <v>32.5889371198048</v>
       </c>
       <c r="T12" t="n">
-        <v>7.071837830720336</v>
+        <v>7.071837830720335</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1154271680748696</v>
+        <v>0.1154271680748695</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.07770891801703</v>
       </c>
       <c r="I13" t="n">
-        <v>44.2342138044993</v>
+        <v>44.23421380449928</v>
       </c>
       <c r="J13" t="n">
         <v>103.9931924902028</v>
@@ -31929,28 +31929,28 @@
         <v>230.5715080504779</v>
       </c>
       <c r="N13" t="n">
-        <v>225.089032941698</v>
+        <v>225.0890329416979</v>
       </c>
       <c r="O13" t="n">
-        <v>207.9061536373504</v>
+        <v>207.9061536373503</v>
       </c>
       <c r="P13" t="n">
-        <v>177.8996313346609</v>
+        <v>177.8996313346608</v>
       </c>
       <c r="Q13" t="n">
         <v>123.1684834804241</v>
       </c>
       <c r="R13" t="n">
-        <v>66.1373704586014</v>
+        <v>66.13737045860137</v>
       </c>
       <c r="S13" t="n">
         <v>25.63391410617445</v>
       </c>
       <c r="T13" t="n">
-        <v>6.284788539333331</v>
+        <v>6.284788539333329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08023134305531923</v>
+        <v>0.0802313430553192</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.279136969095117</v>
+        <v>3.279136969095118</v>
       </c>
       <c r="H20" t="n">
-        <v>33.58246148474538</v>
+        <v>33.58246148474539</v>
       </c>
       <c r="I20" t="n">
-        <v>126.4189280010396</v>
+        <v>126.4189280010397</v>
       </c>
       <c r="J20" t="n">
         <v>278.312651330737</v>
       </c>
       <c r="K20" t="n">
-        <v>417.1185192325333</v>
+        <v>417.1185192325335</v>
       </c>
       <c r="L20" t="n">
-        <v>517.4724072504781</v>
+        <v>517.4724072504783</v>
       </c>
       <c r="M20" t="n">
-        <v>575.7877593246234</v>
+        <v>575.7877593246236</v>
       </c>
       <c r="N20" t="n">
-        <v>585.104607238065</v>
+        <v>585.1046072380651</v>
       </c>
       <c r="O20" t="n">
-        <v>552.4976890016254</v>
+        <v>552.4976890016255</v>
       </c>
       <c r="P20" t="n">
-        <v>471.5439950770896</v>
+        <v>471.5439950770897</v>
       </c>
       <c r="Q20" t="n">
-        <v>354.1099023713706</v>
+        <v>354.1099023713707</v>
       </c>
       <c r="R20" t="n">
-        <v>205.9830876349213</v>
+        <v>205.9830876349214</v>
       </c>
       <c r="S20" t="n">
-        <v>74.72333368325506</v>
+        <v>74.72333368325508</v>
       </c>
       <c r="T20" t="n">
-        <v>14.35442208221388</v>
+        <v>14.35442208221389</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2623309575276093</v>
+        <v>0.2623309575276094</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.754492954738016</v>
+        <v>1.754492954738017</v>
       </c>
       <c r="H21" t="n">
-        <v>16.94470827339084</v>
+        <v>16.94470827339085</v>
       </c>
       <c r="I21" t="n">
-        <v>60.40688462584838</v>
+        <v>60.40688462584839</v>
       </c>
       <c r="J21" t="n">
-        <v>165.7611085000509</v>
+        <v>165.761108500051</v>
       </c>
       <c r="K21" t="n">
-        <v>283.312136467498</v>
+        <v>283.3121364674981</v>
       </c>
       <c r="L21" t="n">
-        <v>380.948130369761</v>
+        <v>380.9481303697611</v>
       </c>
       <c r="M21" t="n">
-        <v>444.548499979014</v>
+        <v>444.5484999790141</v>
       </c>
       <c r="N21" t="n">
-        <v>456.3143759781124</v>
+        <v>456.3143759781125</v>
       </c>
       <c r="O21" t="n">
-        <v>417.4385057704964</v>
+        <v>417.4385057704965</v>
       </c>
       <c r="P21" t="n">
-        <v>335.0312029095779</v>
+        <v>335.031202909578</v>
       </c>
       <c r="Q21" t="n">
-        <v>223.9594866434001</v>
+        <v>223.9594866434002</v>
       </c>
       <c r="R21" t="n">
-        <v>108.9324660845235</v>
+        <v>108.9324660845236</v>
       </c>
       <c r="S21" t="n">
         <v>32.5889371198048</v>
       </c>
       <c r="T21" t="n">
-        <v>7.071837830720335</v>
+        <v>7.071837830720336</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1154271680748695</v>
+        <v>0.1154271680748696</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>13.07770891801703</v>
       </c>
       <c r="I22" t="n">
-        <v>44.23421380449928</v>
+        <v>44.2342138044993</v>
       </c>
       <c r="J22" t="n">
         <v>103.9931924902028</v>
@@ -32640,28 +32640,28 @@
         <v>230.5715080504779</v>
       </c>
       <c r="N22" t="n">
-        <v>225.0890329416979</v>
+        <v>225.089032941698</v>
       </c>
       <c r="O22" t="n">
-        <v>207.9061536373503</v>
+        <v>207.9061536373504</v>
       </c>
       <c r="P22" t="n">
-        <v>177.8996313346608</v>
+        <v>177.8996313346609</v>
       </c>
       <c r="Q22" t="n">
         <v>123.1684834804241</v>
       </c>
       <c r="R22" t="n">
-        <v>66.13737045860137</v>
+        <v>66.1373704586014</v>
       </c>
       <c r="S22" t="n">
         <v>25.63391410617445</v>
       </c>
       <c r="T22" t="n">
-        <v>6.284788539333329</v>
+        <v>6.284788539333331</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0802313430553192</v>
+        <v>0.08023134305531923</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.279136969095117</v>
+        <v>3.279136969095118</v>
       </c>
       <c r="H23" t="n">
         <v>33.58246148474538</v>
@@ -32710,37 +32710,37 @@
         <v>278.312651330737</v>
       </c>
       <c r="K23" t="n">
-        <v>417.1185192325333</v>
+        <v>417.1185192325334</v>
       </c>
       <c r="L23" t="n">
-        <v>517.4724072504781</v>
+        <v>517.4724072504782</v>
       </c>
       <c r="M23" t="n">
-        <v>575.7877593246234</v>
+        <v>575.7877593246235</v>
       </c>
       <c r="N23" t="n">
-        <v>585.104607238065</v>
+        <v>585.1046072380651</v>
       </c>
       <c r="O23" t="n">
         <v>552.4976890016254</v>
       </c>
       <c r="P23" t="n">
-        <v>471.5439950770896</v>
+        <v>471.5439950770897</v>
       </c>
       <c r="Q23" t="n">
-        <v>354.1099023713706</v>
+        <v>354.1099023713707</v>
       </c>
       <c r="R23" t="n">
-        <v>205.9830876349213</v>
+        <v>205.9830876349214</v>
       </c>
       <c r="S23" t="n">
-        <v>74.72333368325506</v>
+        <v>74.72333368325508</v>
       </c>
       <c r="T23" t="n">
-        <v>14.35442208221388</v>
+        <v>14.35442208221389</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2623309575276093</v>
+        <v>0.2623309575276094</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32777,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.754492954738016</v>
+        <v>1.754492954738017</v>
       </c>
       <c r="H24" t="n">
-        <v>16.94470827339084</v>
+        <v>16.94470827339085</v>
       </c>
       <c r="I24" t="n">
         <v>60.40688462584838</v>
       </c>
       <c r="J24" t="n">
-        <v>165.7611085000509</v>
+        <v>165.761108500051</v>
       </c>
       <c r="K24" t="n">
-        <v>283.312136467498</v>
+        <v>283.3121364674981</v>
       </c>
       <c r="L24" t="n">
         <v>380.948130369761</v>
@@ -32798,7 +32798,7 @@
         <v>444.548499979014</v>
       </c>
       <c r="N24" t="n">
-        <v>456.3143759781124</v>
+        <v>456.3143759781125</v>
       </c>
       <c r="O24" t="n">
         <v>417.4385057704964</v>
@@ -32807,19 +32807,19 @@
         <v>335.0312029095779</v>
       </c>
       <c r="Q24" t="n">
-        <v>223.9594866434001</v>
+        <v>223.9594866434002</v>
       </c>
       <c r="R24" t="n">
-        <v>108.9324660845235</v>
+        <v>108.9324660845236</v>
       </c>
       <c r="S24" t="n">
         <v>32.5889371198048</v>
       </c>
       <c r="T24" t="n">
-        <v>7.071837830720335</v>
+        <v>7.071837830720336</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1154271680748695</v>
+        <v>0.1154271680748696</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>13.07770891801703</v>
       </c>
       <c r="I25" t="n">
-        <v>44.23421380449928</v>
+        <v>44.23421380449929</v>
       </c>
       <c r="J25" t="n">
         <v>103.9931924902028</v>
@@ -32877,28 +32877,28 @@
         <v>230.5715080504779</v>
       </c>
       <c r="N25" t="n">
-        <v>225.0890329416979</v>
+        <v>225.089032941698</v>
       </c>
       <c r="O25" t="n">
-        <v>207.9061536373503</v>
+        <v>207.9061536373504</v>
       </c>
       <c r="P25" t="n">
-        <v>177.8996313346608</v>
+        <v>177.8996313346609</v>
       </c>
       <c r="Q25" t="n">
         <v>123.1684834804241</v>
       </c>
       <c r="R25" t="n">
-        <v>66.13737045860137</v>
+        <v>66.13737045860138</v>
       </c>
       <c r="S25" t="n">
         <v>25.63391410617445</v>
       </c>
       <c r="T25" t="n">
-        <v>6.284788539333329</v>
+        <v>6.28478853933333</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0802313430553192</v>
+        <v>0.08023134305531922</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.14179310326402</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>110.8759960863706</v>
       </c>
       <c r="P3" t="n">
         <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>74.61189100715683</v>
       </c>
       <c r="N6" t="n">
-        <v>151.8955562274027</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>79.71116244199196</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>266.3633619761245</v>
       </c>
       <c r="K11" t="n">
-        <v>521.1740807587177</v>
+        <v>521.1740807587175</v>
       </c>
       <c r="L11" t="n">
-        <v>699.3672068309415</v>
+        <v>699.3672068309413</v>
       </c>
       <c r="M11" t="n">
-        <v>794.9550595901834</v>
+        <v>794.9550595901832</v>
       </c>
       <c r="N11" t="n">
-        <v>793.0384680534584</v>
+        <v>793.0384680534582</v>
       </c>
       <c r="O11" t="n">
-        <v>703.1996588426841</v>
+        <v>703.199658842684</v>
       </c>
       <c r="P11" t="n">
-        <v>562.1097074933028</v>
+        <v>562.1097074933027</v>
       </c>
       <c r="Q11" t="n">
-        <v>344.1192031568259</v>
+        <v>344.1192031568258</v>
       </c>
       <c r="R11" t="n">
-        <v>56.11396969377171</v>
+        <v>56.11396969377165</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>165.0145171737931</v>
+        <v>38.92348183338424</v>
       </c>
       <c r="K12" t="n">
-        <v>409.9359345057177</v>
+        <v>145.470697493139</v>
       </c>
       <c r="L12" t="n">
-        <v>572.9944175183199</v>
+        <v>613.234095893346</v>
       </c>
       <c r="M12" t="n">
-        <v>302.4144660569958</v>
+        <v>302.4144660569956</v>
       </c>
       <c r="N12" t="n">
-        <v>324.9726638947792</v>
+        <v>804.3150382383326</v>
       </c>
       <c r="O12" t="n">
-        <v>274.842261326052</v>
+        <v>364.6684006281901</v>
       </c>
       <c r="P12" t="n">
-        <v>201.0567954952477</v>
+        <v>201.0567954952476</v>
       </c>
       <c r="Q12" t="n">
-        <v>294.0550002932277</v>
+        <v>83.97771255737862</v>
       </c>
       <c r="R12" t="n">
-        <v>8.774631931880435</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.63401237353004</v>
+        <v>10.63401237353001</v>
       </c>
       <c r="K13" t="n">
-        <v>148.6232688819469</v>
+        <v>148.6232688819468</v>
       </c>
       <c r="L13" t="n">
-        <v>246.2739226480977</v>
+        <v>246.2739226480976</v>
       </c>
       <c r="M13" t="n">
-        <v>270.1553850123186</v>
+        <v>270.1553850123184</v>
       </c>
       <c r="N13" t="n">
-        <v>269.2212053209266</v>
+        <v>269.2212053209265</v>
       </c>
       <c r="O13" t="n">
-        <v>232.4912815513901</v>
+        <v>232.49128155139</v>
       </c>
       <c r="P13" t="n">
-        <v>175.1781905995544</v>
+        <v>175.1781905995543</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.00644022872972</v>
+        <v>37.00644022872967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>165.0145171737931</v>
+        <v>38.92348183338424</v>
       </c>
       <c r="K15" t="n">
-        <v>145.470697493139</v>
+        <v>409.9359345057176</v>
       </c>
       <c r="L15" t="n">
-        <v>613.234095893346</v>
+        <v>524.0750532497294</v>
       </c>
       <c r="M15" t="n">
         <v>302.4144660569956</v>
@@ -35738,13 +35738,13 @@
         <v>324.9726638947791</v>
       </c>
       <c r="O15" t="n">
-        <v>274.8422613260519</v>
+        <v>668.7045806027814</v>
       </c>
       <c r="P15" t="n">
-        <v>434.056986064681</v>
+        <v>201.0567954952476</v>
       </c>
       <c r="Q15" t="n">
-        <v>294.0550002932277</v>
+        <v>83.97771255737862</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.59713899573869</v>
+        <v>15.59713899573873</v>
       </c>
       <c r="K16" t="n">
         <v>153.5863955041555</v>
@@ -35811,7 +35811,7 @@
         <v>251.2370492703063</v>
       </c>
       <c r="M16" t="n">
-        <v>275.1185116345271</v>
+        <v>275.1185116345272</v>
       </c>
       <c r="N16" t="n">
         <v>274.1843319431352</v>
@@ -35823,7 +35823,7 @@
         <v>180.141317221763</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.96956685093835</v>
+        <v>41.96956685093839</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>165.0145171737931</v>
       </c>
       <c r="K18" t="n">
-        <v>409.9359345057176</v>
+        <v>274.8315376841513</v>
       </c>
       <c r="L18" t="n">
-        <v>613.234095893346</v>
+        <v>242.3937505898868</v>
       </c>
       <c r="M18" t="n">
-        <v>302.4144660569956</v>
+        <v>768.1195298069956</v>
       </c>
       <c r="N18" t="n">
         <v>324.9726638947791</v>
       </c>
       <c r="O18" t="n">
-        <v>444.6798706868756</v>
+        <v>274.8422613260519</v>
       </c>
       <c r="P18" t="n">
         <v>201.0567954952476</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.97771255737862</v>
+        <v>294.0550002932277</v>
       </c>
       <c r="R18" t="n">
         <v>8.774631931880407</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.59713899573869</v>
+        <v>15.59713899573873</v>
       </c>
       <c r="K19" t="n">
         <v>153.5863955041555</v>
@@ -36048,7 +36048,7 @@
         <v>251.2370492703063</v>
       </c>
       <c r="M19" t="n">
-        <v>275.1185116345271</v>
+        <v>275.1185116345272</v>
       </c>
       <c r="N19" t="n">
         <v>274.1843319431352</v>
@@ -36060,7 +36060,7 @@
         <v>180.141317221763</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.96956685093835</v>
+        <v>41.96956685093839</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>266.3633619761245</v>
       </c>
       <c r="K20" t="n">
-        <v>521.1740807587175</v>
+        <v>521.1740807587177</v>
       </c>
       <c r="L20" t="n">
-        <v>699.3672068309413</v>
+        <v>699.3672068309415</v>
       </c>
       <c r="M20" t="n">
-        <v>794.9550595901832</v>
+        <v>794.9550595901834</v>
       </c>
       <c r="N20" t="n">
-        <v>793.0384680534582</v>
+        <v>793.0384680534584</v>
       </c>
       <c r="O20" t="n">
-        <v>703.199658842684</v>
+        <v>703.1996588426841</v>
       </c>
       <c r="P20" t="n">
-        <v>562.1097074933027</v>
+        <v>562.1097074933028</v>
       </c>
       <c r="Q20" t="n">
-        <v>344.1192031568258</v>
+        <v>344.1192031568259</v>
       </c>
       <c r="R20" t="n">
-        <v>56.11396969377165</v>
+        <v>56.11396969377171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>165.0145171737931</v>
+        <v>38.9234818333843</v>
       </c>
       <c r="K21" t="n">
-        <v>409.9359345057176</v>
+        <v>145.4706974931391</v>
       </c>
       <c r="L21" t="n">
-        <v>263.3062808102637</v>
+        <v>613.2340958933461</v>
       </c>
       <c r="M21" t="n">
-        <v>302.4144660569956</v>
+        <v>334.26829139502</v>
       </c>
       <c r="N21" t="n">
-        <v>324.9726638947791</v>
+        <v>324.9726638947792</v>
       </c>
       <c r="O21" t="n">
-        <v>274.8422613260519</v>
+        <v>274.842261326052</v>
       </c>
       <c r="P21" t="n">
-        <v>519.5195641351847</v>
+        <v>519.519564135185</v>
       </c>
       <c r="Q21" t="n">
         <v>294.0550002932277</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.774631931880435</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.59713899573873</v>
+        <v>15.59713899573872</v>
       </c>
       <c r="K22" t="n">
         <v>153.5863955041555</v>
       </c>
       <c r="L22" t="n">
-        <v>251.2370492703063</v>
+        <v>251.2370492703064</v>
       </c>
       <c r="M22" t="n">
         <v>275.1185116345272</v>
@@ -36291,7 +36291,7 @@
         <v>274.1843319431352</v>
       </c>
       <c r="O22" t="n">
-        <v>237.4544081735987</v>
+        <v>237.4544081735988</v>
       </c>
       <c r="P22" t="n">
         <v>180.141317221763</v>
@@ -36361,13 +36361,13 @@
         <v>521.1740807587175</v>
       </c>
       <c r="L23" t="n">
-        <v>699.3672068309413</v>
+        <v>699.3672068309414</v>
       </c>
       <c r="M23" t="n">
-        <v>794.9550595901832</v>
+        <v>794.9550595901833</v>
       </c>
       <c r="N23" t="n">
-        <v>793.0384680534582</v>
+        <v>793.0384680534584</v>
       </c>
       <c r="O23" t="n">
         <v>703.199658842684</v>
@@ -36379,7 +36379,7 @@
         <v>344.1192031568258</v>
       </c>
       <c r="R23" t="n">
-        <v>56.11396969377165</v>
+        <v>56.11396969377168</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.92348183338424</v>
+        <v>38.92348183338427</v>
       </c>
       <c r="K24" t="n">
-        <v>409.9359345057176</v>
+        <v>145.4706974931391</v>
       </c>
       <c r="L24" t="n">
         <v>242.3937505898868</v>
       </c>
       <c r="M24" t="n">
-        <v>302.4144660569956</v>
+        <v>302.4144660569957</v>
       </c>
       <c r="N24" t="n">
-        <v>324.9726638947791</v>
+        <v>736.4414664681433</v>
       </c>
       <c r="O24" t="n">
-        <v>421.8458268868377</v>
+        <v>274.842261326052</v>
       </c>
       <c r="P24" t="n">
-        <v>519.5195641351847</v>
+        <v>519.5195641351849</v>
       </c>
       <c r="Q24" t="n">
         <v>294.0550002932277</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.59713899573875</v>
+        <v>15.5971389957387</v>
       </c>
       <c r="K25" t="n">
         <v>153.5863955041555</v>
       </c>
       <c r="L25" t="n">
-        <v>251.2370492703064</v>
+        <v>251.2370492703063</v>
       </c>
       <c r="M25" t="n">
         <v>275.1185116345272</v>
@@ -36528,13 +36528,13 @@
         <v>274.1843319431352</v>
       </c>
       <c r="O25" t="n">
-        <v>237.4544081735988</v>
+        <v>237.4544081735987</v>
       </c>
       <c r="P25" t="n">
         <v>180.141317221763</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.96956685093841</v>
+        <v>41.96956685093838</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>165.0145171737931</v>
+        <v>38.92348183338424</v>
       </c>
       <c r="K27" t="n">
-        <v>409.9359345057176</v>
+        <v>145.470697493139</v>
       </c>
       <c r="L27" t="n">
         <v>242.3937505898868</v>
@@ -36683,19 +36683,19 @@
         <v>302.4144660569956</v>
       </c>
       <c r="N27" t="n">
-        <v>324.9726638947791</v>
+        <v>652.2672838994707</v>
       </c>
       <c r="O27" t="n">
-        <v>295.754791546429</v>
+        <v>668.7045806027814</v>
       </c>
       <c r="P27" t="n">
-        <v>519.5195641351847</v>
+        <v>201.0567954952476</v>
       </c>
       <c r="Q27" t="n">
         <v>294.0550002932277</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.774631931880407</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.16491464634024</v>
+        <v>40.16491464634023</v>
       </c>
       <c r="K28" t="n">
-        <v>178.1541711547571</v>
+        <v>178.154171154757</v>
       </c>
       <c r="L28" t="n">
         <v>275.8048249209078</v>
@@ -36762,16 +36762,16 @@
         <v>299.6862872851287</v>
       </c>
       <c r="N28" t="n">
-        <v>298.7521075937368</v>
+        <v>298.7521075937367</v>
       </c>
       <c r="O28" t="n">
         <v>262.0221838242002</v>
       </c>
       <c r="P28" t="n">
-        <v>204.7090928723646</v>
+        <v>204.7090928723645</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.53734250153991</v>
+        <v>66.53734250153988</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>38.92348183338424</v>
       </c>
       <c r="K30" t="n">
-        <v>409.9359345057176</v>
+        <v>145.470697493139</v>
       </c>
       <c r="L30" t="n">
-        <v>613.234095893346</v>
+        <v>492.9829474596349</v>
       </c>
       <c r="M30" t="n">
         <v>302.4144660569956</v>
       </c>
       <c r="N30" t="n">
-        <v>324.9726638947791</v>
+        <v>804.3150382383326</v>
       </c>
       <c r="O30" t="n">
         <v>274.8422613260519</v>
       </c>
       <c r="P30" t="n">
-        <v>286.908152460631</v>
+        <v>201.0567954952476</v>
       </c>
       <c r="Q30" t="n">
         <v>294.0550002932277</v>
       </c>
       <c r="R30" t="n">
-        <v>8.774631931880407</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>35.20178802413159</v>
+        <v>35.20178802413152</v>
       </c>
       <c r="K31" t="n">
-        <v>173.1910445325484</v>
+        <v>173.1910445325483</v>
       </c>
       <c r="L31" t="n">
         <v>270.8416982986992</v>
@@ -36999,16 +36999,16 @@
         <v>294.72316066292</v>
       </c>
       <c r="N31" t="n">
-        <v>293.7889809715281</v>
+        <v>293.788980971528</v>
       </c>
       <c r="O31" t="n">
-        <v>257.0590572019916</v>
+        <v>257.0590572019915</v>
       </c>
       <c r="P31" t="n">
-        <v>199.7459662501559</v>
+        <v>199.7459662501558</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.57421587933125</v>
+        <v>61.57421587933118</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>165.0145171737931</v>
+        <v>38.92348183338424</v>
       </c>
       <c r="K33" t="n">
         <v>145.470697493139</v>
       </c>
       <c r="L33" t="n">
-        <v>527.7715178228423</v>
+        <v>613.234095893346</v>
       </c>
       <c r="M33" t="n">
         <v>302.4144660569956</v>
@@ -37160,13 +37160,13 @@
         <v>324.9726638947791</v>
       </c>
       <c r="O33" t="n">
-        <v>274.8422613260519</v>
+        <v>668.7045806027814</v>
       </c>
       <c r="P33" t="n">
-        <v>519.5195641351847</v>
+        <v>376.3629898642097</v>
       </c>
       <c r="Q33" t="n">
-        <v>294.0550002932277</v>
+        <v>83.97771255737862</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>165.0145171737931</v>
+        <v>38.92348183338424</v>
       </c>
       <c r="K36" t="n">
         <v>145.470697493139</v>
       </c>
       <c r="L36" t="n">
-        <v>366.891912119226</v>
+        <v>384.5974665555468</v>
       </c>
       <c r="M36" t="n">
         <v>302.4144660569956</v>
@@ -37400,10 +37400,10 @@
         <v>274.8422613260519</v>
       </c>
       <c r="P36" t="n">
-        <v>201.0567954952476</v>
+        <v>519.5195641351847</v>
       </c>
       <c r="Q36" t="n">
-        <v>294.0550002932277</v>
+        <v>83.97771255737862</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.96462814067621</v>
+        <v>79.96462814067625</v>
       </c>
       <c r="K37" t="n">
-        <v>217.953884649093</v>
+        <v>217.9538846490931</v>
       </c>
       <c r="L37" t="n">
         <v>315.6045384152438</v>
       </c>
       <c r="M37" t="n">
-        <v>339.4860007794646</v>
+        <v>339.4860007794647</v>
       </c>
       <c r="N37" t="n">
-        <v>338.5518210880727</v>
+        <v>338.5518210880728</v>
       </c>
       <c r="O37" t="n">
         <v>301.8218973185362</v>
       </c>
       <c r="P37" t="n">
-        <v>244.5088063667005</v>
+        <v>244.5088063667006</v>
       </c>
       <c r="Q37" t="n">
         <v>106.3370559958759</v>
@@ -37564,7 +37564,7 @@
         <v>344.1192031568258</v>
       </c>
       <c r="R38" t="n">
-        <v>56.11396969377231</v>
+        <v>56.11396969377165</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>38.92348183338424</v>
       </c>
       <c r="K39" t="n">
-        <v>396.1764424988934</v>
+        <v>145.470697493139</v>
       </c>
       <c r="L39" t="n">
-        <v>613.234095893346</v>
+        <v>470.0775216223709</v>
       </c>
       <c r="M39" t="n">
         <v>302.4144660569956</v>
@@ -37634,7 +37634,7 @@
         <v>324.9726638947791</v>
       </c>
       <c r="O39" t="n">
-        <v>274.8422613260519</v>
+        <v>668.7045806027814</v>
       </c>
       <c r="P39" t="n">
         <v>519.5195641351847</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.96462814067625</v>
+        <v>79.96462814067624</v>
       </c>
       <c r="K40" t="n">
-        <v>217.9538846490931</v>
+        <v>217.953884649093</v>
       </c>
       <c r="L40" t="n">
         <v>315.6045384152438</v>
@@ -37716,7 +37716,7 @@
         <v>301.8218973185362</v>
       </c>
       <c r="P40" t="n">
-        <v>244.5088063667006</v>
+        <v>244.5088063667005</v>
       </c>
       <c r="Q40" t="n">
         <v>106.3370559958759</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>38.92348183338424</v>
+        <v>165.0145171737931</v>
       </c>
       <c r="K42" t="n">
-        <v>409.9359345057176</v>
+        <v>145.470697493139</v>
       </c>
       <c r="L42" t="n">
         <v>242.3937505898868</v>
       </c>
       <c r="M42" t="n">
-        <v>302.4144660569956</v>
+        <v>404.0072017490709</v>
       </c>
       <c r="N42" t="n">
         <v>324.9726638947791</v>
@@ -37874,10 +37874,10 @@
         <v>668.7045806027814</v>
       </c>
       <c r="P42" t="n">
-        <v>272.6608104192413</v>
+        <v>519.5195641351847</v>
       </c>
       <c r="Q42" t="n">
-        <v>294.0550002932277</v>
+        <v>83.97771255737862</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.96462814067621</v>
+        <v>79.96462814067618</v>
       </c>
       <c r="K43" t="n">
         <v>217.953884649093</v>
@@ -37956,7 +37956,7 @@
         <v>244.5088063667005</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.3370559958759</v>
+        <v>106.3370559958758</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>266.3633619761245</v>
+        <v>266.3633619761246</v>
       </c>
       <c r="K44" t="n">
         <v>521.1740807587175</v>
@@ -38023,7 +38023,7 @@
         <v>699.3672068309413</v>
       </c>
       <c r="M44" t="n">
-        <v>794.955059590184</v>
+        <v>794.9550595901832</v>
       </c>
       <c r="N44" t="n">
         <v>793.0384680534582</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>38.92348183338424</v>
+        <v>165.0145171737931</v>
       </c>
       <c r="K45" t="n">
-        <v>409.9359345057176</v>
+        <v>145.470697493139</v>
       </c>
       <c r="L45" t="n">
         <v>242.3937505898868</v>
       </c>
       <c r="M45" t="n">
-        <v>768.1195298069956</v>
+        <v>302.4144660569956</v>
       </c>
       <c r="N45" t="n">
-        <v>534.8112220813513</v>
+        <v>804.3150382383326</v>
       </c>
       <c r="O45" t="n">
         <v>274.8422613260519</v>
       </c>
       <c r="P45" t="n">
-        <v>201.0567954952476</v>
+        <v>519.5195641351847</v>
       </c>
       <c r="Q45" t="n">
-        <v>83.97771255737862</v>
+        <v>100.0903931826299</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
